--- a/Technology/Software/Salesforce.xlsx
+++ b/Technology/Software/Salesforce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5E413-C6BB-2749-9194-503B29747E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C196B9-DA3F-B841-873A-BCF86EAAB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,13 +2378,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>200.12</v>
+    <v>213.88</v>
     <v>126.34</v>
-    <v>1.2446999999999999</v>
-    <v>1.52</v>
-    <v>7.6959999999999997E-3</v>
-    <v>0.47</v>
-    <v>2.3610000000000003E-3</v>
+    <v>1.2398</v>
+    <v>-3</v>
+    <v>-1.4063000000000001E-2</v>
+    <v>-0.01</v>
+    <v>-4.7540000000000002E-5</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
     <v>79390</v>
@@ -2392,25 +2392,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>199.12</v>
+    <v>213.24</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999476226563</v>
+    <v>45065.951310728909</v>
     <v>0</v>
-    <v>196.465</v>
-    <v>199030000000</v>
+    <v>209.93</v>
+    <v>205908159424</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>197.03</v>
-    <v>957.34569999999997</v>
-    <v>197.51</v>
-    <v>199.03</v>
-    <v>199.5</v>
-    <v>1000000000</v>
+    <v>212.96</v>
+    <v>1033.9780000000001</v>
+    <v>213.32</v>
+    <v>210.32</v>
+    <v>210.35</v>
+    <v>979023200</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>4860102</v>
-    <v>5987314</v>
+    <v>6091416</v>
+    <v>4749387</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2575,9 +2575,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2998,10 +2998,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE88" sqref="AE88"/>
+      <selection pane="bottomRight" activeCell="V116" sqref="V116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4404,15 +4404,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>7.5128340631133925</v>
+        <v>7.7724656282651363</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>137.83240997229916</v>
+        <v>142.59567827146813</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>37.673670263108086</v>
+        <v>38.975612232443687</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2446999999999999</v>
+        <v>1.2398</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4534334999999997E-2</v>
+        <v>9.4323390000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="AE100" s="33">
         <f>AE99/AE103</f>
-        <v>6.5635108046063345E-2</v>
+        <v>6.3582033951210926E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="AE101" s="48" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>199030000000</v>
+        <v>205908159424</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="AE102" s="33">
         <f>AE101/AE103</f>
-        <v>0.93436489195393668</v>
+        <v>0.93641796604878902</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="AE103" s="37">
         <f>AE99+AE101</f>
-        <v>213011000000</v>
+        <v>219889159424</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>8.8329563708212253E-2</v>
+        <v>8.8326117014626698E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11142,7 +11142,7 @@
       <c r="AA107" s="38"/>
       <c r="AB107" s="41">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>179742675849.12137</v>
+        <v>179752458825.83151</v>
       </c>
       <c r="AC107" s="42" t="s">
         <v>147</v>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="AB108" s="41">
         <f>AB107+AB106</f>
-        <v>190848066328.41061</v>
+        <v>190857849305.12076</v>
       </c>
       <c r="AC108" s="42" t="s">
         <v>143</v>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="AE108" s="46">
         <f>AE105</f>
-        <v>8.8329563708212253E-2</v>
+        <v>8.8326117014626698E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="Y110" s="48">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>149851505914.78296</v>
+        <v>149860095582.6058</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="Y113" s="48">
         <f>Y110+Y111-Y112</f>
-        <v>146407505914.78296</v>
+        <v>146416095582.6058</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="Y115" s="58">
         <f>Y113/Y114</f>
-        <v>111.98344939550405</v>
+        <v>111.99001941816753</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="Y116" s="57" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>199.03</v>
+        <v>210.32</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="Y117" s="52">
         <f>Y115/Y116-1</f>
-        <v>-0.43735391953221092</v>
+        <v>-0.46752558283488233</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Salesforce.xlsx
+++ b/Technology/Software/Salesforce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C196B9-DA3F-B841-873A-BCF86EAAB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22286A-09FC-E448-8596-FAC8DE0ED04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,13 +2378,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>213.88</v>
+    <v>216.15</v>
     <v>126.34</v>
-    <v>1.2398</v>
-    <v>-3</v>
-    <v>-1.4063000000000001E-2</v>
-    <v>-0.01</v>
-    <v>-4.7540000000000002E-5</v>
+    <v>1.2358</v>
+    <v>5.53</v>
+    <v>2.6345E-2</v>
+    <v>0.53</v>
+    <v>2.4599999999999999E-3</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
     <v>79390</v>
@@ -2392,25 +2392,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>213.24</v>
+    <v>216.15</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.951310728909</v>
+    <v>45072.999788367968</v>
     <v>0</v>
-    <v>209.93</v>
-    <v>205908159424</v>
+    <v>212.55</v>
+    <v>210920758208</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>212.96</v>
-    <v>1033.9780000000001</v>
-    <v>213.32</v>
-    <v>210.32</v>
-    <v>210.35</v>
+    <v>212.8</v>
+    <v>1017.449</v>
+    <v>209.91</v>
+    <v>215.44</v>
+    <v>215.97</v>
     <v>979023200</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>6091416</v>
-    <v>4749387</v>
+    <v>6933320</v>
+    <v>4876530</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2575,9 +2575,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3001,7 +3001,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V116" sqref="V116"/>
+      <selection pane="bottomRight" activeCell="Y99" sqref="Y99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4404,15 +4404,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>7.7724656282651363</v>
+        <v>7.9616774199003473</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>142.59567827146813</v>
+        <v>146.06700706925207</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>38.975612232443687</v>
+        <v>39.924428962332009</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2398</v>
+        <v>1.2358</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4323390000000007E-2</v>
+        <v>9.415119000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="AE100" s="33">
         <f>AE99/AE103</f>
-        <v>6.3582033951210926E-2</v>
+        <v>6.2164920858776465E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="AE101" s="48" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>205908159424</v>
+        <v>210920758208</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="AE102" s="33">
         <f>AE101/AE103</f>
-        <v>0.93641796604878902</v>
+        <v>0.93783507914122355</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="AE103" s="37">
         <f>AE99+AE101</f>
-        <v>219889159424</v>
+        <v>224901758208</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>8.8326117014626698E-2</v>
+        <v>8.8298288724890386E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11142,7 +11142,7 @@
       <c r="AA107" s="38"/>
       <c r="AB107" s="41">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>179752458825.83151</v>
+        <v>179831484714.30005</v>
       </c>
       <c r="AC107" s="42" t="s">
         <v>147</v>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="AB108" s="41">
         <f>AB107+AB106</f>
-        <v>190857849305.12076</v>
+        <v>190936875193.58929</v>
       </c>
       <c r="AC108" s="42" t="s">
         <v>143</v>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="AE108" s="46">
         <f>AE105</f>
-        <v>8.8326117014626698E-2</v>
+        <v>8.8298288724890386E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="Y110" s="48">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>149860095582.6058</v>
+        <v>149929482248.00201</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="Y113" s="48">
         <f>Y110+Y111-Y112</f>
-        <v>146416095582.6058</v>
+        <v>146485482248.00201</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="Y115" s="58">
         <f>Y113/Y114</f>
-        <v>111.99001941816753</v>
+        <v>112.0430915478003</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="Y116" s="57" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>210.32</v>
+        <v>215.44</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="Y117" s="52">
         <f>Y115/Y116-1</f>
-        <v>-0.46752558283488233</v>
+        <v>-0.47993366344318467</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Salesforce.xlsx
+++ b/Technology/Software/Salesforce.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22286A-09FC-E448-8596-FAC8DE0ED04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E27FBC-A176-3345-9342-A6831847D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -534,34 +528,59 @@
     <t>Equity Value</t>
   </si>
   <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
     <t>Shares</t>
-  </si>
-  <si>
-    <t>Intrinsic Value</t>
-  </si>
-  <si>
-    <t>Current Price</t>
-  </si>
-  <si>
-    <t>Upside/Downside</t>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>Net Cash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +907,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -946,12 +974,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +1031,24 @@
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,10 +1215,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$W$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$X$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>5435000</c:v>
                 </c:pt>
@@ -1245,6 +1285,9 @@
                 <c:pt idx="21">
                   <c:v>26492000000</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>31352000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1303,10 +1346,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$W$19</c:f>
+              <c:f>'Sheet 1'!$B$19:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-31671000</c:v>
                 </c:pt>
@@ -1373,6 +1416,9 @@
                 <c:pt idx="21">
                   <c:v>4830000000</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>4446000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1387,11 +1433,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1431,10 +1477,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$W$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$X$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1500,6 +1546,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5283000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6313000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,13 +2270,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>1603375</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
@@ -2256,6 +2305,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2378,13 +2487,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>216.15</v>
+    <v>225</v>
     <v>126.34</v>
-    <v>1.2358</v>
-    <v>5.53</v>
-    <v>2.6345E-2</v>
-    <v>0.53</v>
-    <v>2.4599999999999999E-3</v>
+    <v>1.2126999999999999</v>
+    <v>3.7</v>
+    <v>1.7654E-2</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
     <v>79390</v>
@@ -2392,25 +2499,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>216.15</v>
+    <v>213.9564</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999788367968</v>
+    <v>45099.999867256251</v>
     <v>0</v>
-    <v>212.55</v>
-    <v>210920758208</v>
+    <v>209.09</v>
+    <v>207744460000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>212.8</v>
-    <v>1017.449</v>
-    <v>209.91</v>
-    <v>215.44</v>
-    <v>215.97</v>
-    <v>979023200</v>
+    <v>209.63</v>
+    <v>561.64419999999996</v>
+    <v>209.59</v>
+    <v>213.29</v>
+    <v>974000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>6933320</v>
-    <v>4876530</v>
+    <v>3123</v>
+    <v>8776617</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2442,8 +2548,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2464,7 +2568,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2481,7 +2584,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2492,16 +2595,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2567,19 +2667,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2624,9 +2718,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2634,9 +2725,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2995,23 +3083,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF118"/>
+  <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y99" sqref="Y99"/>
+      <selection pane="bottomRight" activeCell="Z94" sqref="Z94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="23" width="15" customWidth="1"/>
-    <col min="24" max="32" width="21.33203125" customWidth="1"/>
+    <col min="2" max="24" width="15" customWidth="1"/>
+    <col min="25" max="33" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -3081,7 +3169,7 @@
       <c r="W1" s="8">
         <v>2022</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="8">
         <v>2023</v>
       </c>
       <c r="Y1" s="27">
@@ -3096,94 +3184,100 @@
       <c r="AB1" s="27">
         <v>2027</v>
       </c>
+      <c r="AC1" s="27">
+        <v>2028</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
     </row>
-    <row r="3" spans="1:32" ht="40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3253,37 +3347,40 @@
       <c r="W3" s="1">
         <v>26492000000</v>
       </c>
-      <c r="X3" s="28">
-        <v>34614000000</v>
+      <c r="X3" s="1">
+        <v>31352000000</v>
       </c>
       <c r="Y3" s="28">
-        <v>38495000000</v>
+        <v>34644000000</v>
       </c>
       <c r="Z3" s="28">
-        <v>42940000000</v>
+        <v>38456000000</v>
       </c>
       <c r="AA3" s="28">
-        <v>48784000000</v>
+        <v>42919000000</v>
       </c>
       <c r="AB3" s="28">
-        <v>55160000000</v>
-      </c>
-      <c r="AC3" s="18" t="s">
+        <v>48540000000</v>
+      </c>
+      <c r="AC3" s="28">
+        <v>54332000000</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3367,47 +3464,51 @@
         <v>0.24295239209264241</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" ref="W4:AB4" si="3">(W3/V3)-1</f>
+        <f t="shared" ref="W4:AC4" si="3">(W3/V3)-1</f>
         <v>0.24656502917372491</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="3"/>
-        <v>0.30658311943228145</v>
+        <v>0.18345160803261362</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="3"/>
-        <v>0.11212226266828451</v>
+        <f>(Y3/X3)-1</f>
+        <v>0.10500127583567243</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="3"/>
-        <v>0.11546954149889599</v>
+        <v>0.11003348343147445</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="3"/>
-        <v>0.13609687936655801</v>
+        <v>0.11605471187851046</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="3"/>
-        <v>0.13069858970154158</v>
-      </c>
-      <c r="AC4" s="17">
-        <f>(W4+V4+U4)/3</f>
-        <v>0.25894118328715282</v>
+        <v>0.13096763671101375</v>
+      </c>
+      <c r="AC4" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11932426864441692</v>
       </c>
       <c r="AD4" s="17">
-        <f>(W20+V20+U20)/3</f>
-        <v>0.38333041514994387</v>
+        <f>(W4+V4+X4)/3</f>
+        <v>0.22432300976632699</v>
       </c>
       <c r="AE4" s="17">
-        <f>(W29+V29+U29)/3</f>
-        <v>9.9285302422826973</v>
+        <f>(W20+V20+X20)/3</f>
+        <v>0.23899549079969129</v>
       </c>
       <c r="AF4" s="17">
-        <f>(W105+V105+U105)/3</f>
-        <v>0.23879258826431995</v>
+        <f>(W29+V29+X29)/3</f>
+        <v>9.9387071782214065</v>
+      </c>
+      <c r="AG4" s="17">
+        <f>(W106+V106+X106)/3</f>
+        <v>0.19853653458324896</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3477,8 +3578,11 @@
       <c r="W5" s="1">
         <v>7026000000</v>
       </c>
+      <c r="X5" s="1">
+        <v>8360000000</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3548,20 +3652,23 @@
       <c r="W6" s="10">
         <v>19466000000</v>
       </c>
-      <c r="AC6" s="18" t="s">
+      <c r="X6" s="10">
+        <v>22992000000</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AG6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3631,24 +3738,27 @@
       <c r="W7" s="2">
         <v>0.73480000000000001</v>
       </c>
-      <c r="AC7" s="17">
-        <f>W7</f>
-        <v>0.73480000000000001</v>
-      </c>
-      <c r="AD7" s="20">
-        <f>W21</f>
-        <v>0.18229999999999999</v>
+      <c r="X7" s="2">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="AD7" s="17">
+        <f>X7</f>
+        <v>0.73340000000000005</v>
       </c>
       <c r="AE7" s="20">
-        <f>W30</f>
-        <v>5.45E-2</v>
+        <f>X21</f>
+        <v>0.14180000000000001</v>
       </c>
       <c r="AF7" s="20">
-        <f>W106/W3</f>
-        <v>0.19941869243545221</v>
+        <f>X30</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="AG7" s="20">
+        <f>X107/X3</f>
+        <v>0.20135876499106914</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3718,10 +3828,13 @@
       <c r="W8" s="1">
         <v>4465000000</v>
       </c>
+      <c r="X8" s="1">
+        <v>5055000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3811,46 +3924,50 @@
         <f t="shared" si="4"/>
         <v>0.16854144647440736</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="X9" s="15">
+        <f>X8/X3</f>
+        <v>0.16123373309517733</v>
+      </c>
+      <c r="AD9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="19" t="s">
-        <v>99</v>
-      </c>
     </row>
-    <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1">
         <v>158613000</v>
@@ -3894,50 +4011,53 @@
       <c r="W10" s="1">
         <v>2598000000</v>
       </c>
-      <c r="AC10" s="17">
-        <f>W9</f>
-        <v>0.16854144647440736</v>
-      </c>
-      <c r="AD10" s="20">
-        <f>W13</f>
-        <v>0.54556092405254419</v>
+      <c r="X10" s="1">
+        <v>2553000000</v>
+      </c>
+      <c r="AD10" s="17">
+        <f>X9</f>
+        <v>0.16123373309517733</v>
       </c>
       <c r="AE10" s="20">
-        <f>W80</f>
-        <v>0.10489959232975993</v>
+        <f>X13</f>
+        <v>0.51285404439908144</v>
       </c>
       <c r="AF10" s="20">
-        <f>W89</f>
-        <v>0</v>
+        <f>X80</f>
+        <v>0.10458662924215362</v>
+      </c>
+      <c r="AG10" s="20">
+        <f>X89</f>
+        <v>2.5452921663689718E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1">
         <v>534413000</v>
@@ -3981,8 +4101,11 @@
       <c r="W11" s="1">
         <v>11855000000</v>
       </c>
+      <c r="X11" s="1">
+        <v>13526000000</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -4052,22 +4175,25 @@
       <c r="W12" s="1">
         <v>14453000000</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="X12" s="1">
+        <v>16079000000</v>
+      </c>
+      <c r="AD12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AG12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AE12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>120</v>
-      </c>
     </row>
-    <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4157,95 +4283,102 @@
         <f t="shared" si="5"/>
         <v>0.54556092405254419</v>
       </c>
-      <c r="AC13" s="17">
-        <f>W28/W72</f>
-        <v>2.4840446577557584E-2</v>
-      </c>
-      <c r="AD13" s="20">
-        <f>W28/W54</f>
-        <v>1.5166633406505687E-2</v>
+      <c r="X13" s="15">
+        <f t="shared" ref="X13" si="6">X12/X3</f>
+        <v>0.51285404439908144</v>
+      </c>
+      <c r="AD13" s="17">
+        <f>X28/X72</f>
+        <v>3.564146061447249E-3</v>
       </c>
       <c r="AE13" s="20">
-        <f>W22/(W72+W56+W61)</f>
-        <v>7.5992899933436872E-3</v>
-      </c>
-      <c r="AF13" s="21">
-        <f>W67/W72</f>
-        <v>0.63783523421238242</v>
+        <f>X28/X54</f>
+        <v>2.104219567218687E-3</v>
+      </c>
+      <c r="AF13" s="20">
+        <f>X22/(X72+X56+X61)</f>
+        <v>1.4217289880878435E-2</v>
+      </c>
+      <c r="AG13" s="21">
+        <f>X67/X72</f>
+        <v>0.69380900974999571</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>7657000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <v>-3445000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1">
         <v>-285000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X14" s="1">
+        <v>828000000</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4315,20 +4448,23 @@
       <c r="W15" s="1">
         <v>18918000000</v>
       </c>
-      <c r="AC15" s="18" t="s">
+      <c r="X15" s="1">
+        <v>21962000000</v>
+      </c>
+      <c r="AD15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AG15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AE15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4398,50 +4534,53 @@
       <c r="W16" s="1">
         <v>25944000000</v>
       </c>
-      <c r="AC16" s="29">
-        <f>(W35+V35+U35+T35+S35)/5</f>
-        <v>6.8460590030009441E-2</v>
-      </c>
-      <c r="AD16" s="30">
-        <f>AE101/W3</f>
-        <v>7.9616774199003473</v>
-      </c>
-      <c r="AE16" s="30">
-        <f>AE101/W28</f>
-        <v>146.06700706925207</v>
-      </c>
-      <c r="AF16" s="31">
-        <f>AE101/W106</f>
-        <v>39.924428962332009</v>
+      <c r="X16" s="1">
+        <v>30322000000</v>
+      </c>
+      <c r="AD16" s="29">
+        <f>(W35+V35+U35+T35+X35)/5</f>
+        <v>6.3363284011243692E-2</v>
+      </c>
+      <c r="AE16" s="67">
+        <f>AF101/X3</f>
+        <v>6.6261948201071705</v>
+      </c>
+      <c r="AF16" s="67">
+        <f>AF101/X28</f>
+        <v>998.77144230769227</v>
+      </c>
+      <c r="AG16" s="68">
+        <f>AF101/X107</f>
+        <v>32.907406938064312</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1">
         <v>2569000</v>
@@ -4480,21 +4619,24 @@
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>110000000</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>216000000</v>
+      </c>
+      <c r="X17" s="1">
+        <v>287160000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>5549000</v>
@@ -4556,11 +4698,23 @@
       <c r="W18" s="1">
         <v>3298000000</v>
       </c>
-      <c r="AC18" s="18" t="s">
-        <v>159</v>
+      <c r="X18" s="1">
+        <v>3786000000</v>
+      </c>
+      <c r="AD18" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4630,14 +4784,44 @@
       <c r="W19" s="10">
         <v>4830000000</v>
       </c>
-      <c r="AC19" s="54">
-        <f>W40-W56-W61</f>
-        <v>-3444000000</v>
+      <c r="X19" s="10">
+        <v>4446000000</v>
+      </c>
+      <c r="Y19" s="62">
+        <v>10782000000</v>
+      </c>
+      <c r="Z19" s="62">
+        <v>12830000000</v>
+      </c>
+      <c r="AA19" s="62">
+        <v>12461000000</v>
+      </c>
+      <c r="AB19" s="62">
+        <v>14210000000</v>
+      </c>
+      <c r="AC19" s="62">
+        <v>16504000000</v>
+      </c>
+      <c r="AD19" s="52">
+        <f>X40-X56-X61</f>
+        <v>-1580000000</v>
+      </c>
+      <c r="AE19" s="67">
+        <f>AF101/Y3</f>
+        <v>5.996549474656506</v>
+      </c>
+      <c r="AF19" s="67">
+        <f>AF101/Y28</f>
+        <v>28.229985052316891</v>
+      </c>
+      <c r="AG19" s="68">
+        <f>AF101/Y106</f>
+        <v>21.447910386124303</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4653,79 +4837,103 @@
         <v>-4.6585073194144471</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:O20" si="6">(F19/E19)-1</f>
+        <f t="shared" ref="F20:O20" si="7">(F19/E19)-1</f>
         <v>0.79127582814037378</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.75029295444558364</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4228089629056213E-2</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3429951690821258</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.64816235957653379</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.5988208036711145E-2</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1743161918537099E-2</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.29397686877284335</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1493823308323996</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.26052739080776</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" ref="P20" si="7">(P19/O19)-1</f>
+        <f t="shared" ref="P20" si="8">(P19/O19)-1</f>
         <v>2.4774687426013822</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" ref="Q20" si="8">(Q19/P19)-1</f>
+        <f t="shared" ref="Q20" si="9">(Q19/P19)-1</f>
         <v>1.1478952692187985</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" ref="R20" si="9">(R19/Q19)-1</f>
+        <f t="shared" ref="R20" si="10">(R19/Q19)-1</f>
         <v>0.12694373250980351</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" ref="S20" si="10">(S19/R19)-1</f>
+        <f t="shared" ref="S20" si="11">(S19/R19)-1</f>
         <v>0.39516297534475564</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" ref="T20" si="11">(T19/S19)-1</f>
+        <f t="shared" ref="T20" si="12">(T19/S19)-1</f>
         <v>1.015070306657412</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" ref="U20" si="12">(U19/T19)-1</f>
+        <f t="shared" ref="U20" si="13">(U19/T19)-1</f>
         <v>0.35350166746069567</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" ref="V20" si="13">(V19/U19)-1</f>
+        <f t="shared" ref="V20" si="14">(V19/U19)-1</f>
         <v>0.90320309750088001</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" ref="W20" si="14">(W19/V19)-1</f>
+        <f t="shared" ref="W20:X20" si="15">(W19/V19)-1</f>
         <v>-0.10671351951174401</v>
       </c>
+      <c r="X20" s="15">
+        <f t="shared" si="15"/>
+        <v>-7.9503105590062129E-2</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="16">(Y19/X19)-1</f>
+        <v>1.4251012145748989</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20" si="17">(Z19/Y19)-1</f>
+        <v>0.18994620664069739</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="18">(AA19/Z19)-1</f>
+        <v>-2.8760717069368669E-2</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="19">(AB19/AA19)-1</f>
+        <v>0.14035791670010433</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20" si="20">(AC19/AB19)-1</f>
+        <v>0.16143560872624918</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4795,8 +5003,31 @@
       <c r="W21" s="2">
         <v>0.18229999999999999</v>
       </c>
+      <c r="X21" s="61">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="Y21" s="63">
+        <f>Y19/Y3</f>
+        <v>0.31122272254935918</v>
+      </c>
+      <c r="Z21" s="63">
+        <f t="shared" ref="Z21:AC21" si="21">Z19/Z3</f>
+        <v>0.33362804243811106</v>
+      </c>
+      <c r="AA21" s="63">
+        <f t="shared" si="21"/>
+        <v>0.29033761271231856</v>
+      </c>
+      <c r="AB21" s="63">
+        <f t="shared" si="21"/>
+        <v>0.29274824886691386</v>
+      </c>
+      <c r="AC21" s="63">
+        <f t="shared" si="21"/>
+        <v>0.30376205551056468</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4866,8 +5097,11 @@
       <c r="W22" s="10">
         <v>548000000</v>
       </c>
+      <c r="X22" s="59">
+        <v>1030000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4937,8 +5171,11 @@
       <c r="W23" s="2">
         <v>2.07E-2</v>
       </c>
+      <c r="X23" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5008,8 +5245,11 @@
       <c r="W24" s="1">
         <v>984000000</v>
       </c>
+      <c r="X24" s="1">
+        <v>-370000000</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5079,8 +5319,11 @@
       <c r="W25" s="10">
         <v>1532000000</v>
       </c>
+      <c r="X25" s="10">
+        <v>660000000</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5150,19 +5393,22 @@
       <c r="W26" s="2">
         <v>5.7799999999999997E-2</v>
       </c>
+      <c r="X26" s="2">
+        <v>2.1100000000000001E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>541000</v>
@@ -5221,8 +5467,11 @@
       <c r="W27" s="1">
         <v>88000000</v>
       </c>
+      <c r="X27" s="1">
+        <v>452000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5292,10 +5541,28 @@
       <c r="W28" s="11">
         <v>1444000000</v>
       </c>
+      <c r="X28" s="11">
+        <v>208000000</v>
+      </c>
+      <c r="Y28" s="64">
+        <v>7359000000</v>
+      </c>
+      <c r="Z28" s="64">
+        <v>9029000000</v>
+      </c>
+      <c r="AA28" s="64">
+        <v>10691000000</v>
+      </c>
+      <c r="AB28" s="64">
+        <v>12122000000</v>
+      </c>
+      <c r="AC28" s="64">
+        <v>13148000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5311,79 +5578,103 @@
         <v>-1.361671469740634</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:O29" si="15">(F28/E28)-1</f>
+        <f t="shared" ref="F29:O29" si="22">(F28/E28)-1</f>
         <v>1.0904951622083097</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.8761230601687995</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.98310739622111398</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>37.162162162162161</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.3658749182828505</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.85868564060053432</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.20125373208290487</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-1.1794832025312529</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>22.370636017974419</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.14150751539129958</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="16">(P28/O28)-1</f>
+        <f t="shared" ref="P29" si="23">(P28/O28)-1</f>
         <v>0.13142241843437064</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="17">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29" si="24">(Q28/P28)-1</f>
         <v>-0.81945882567913264</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="18">(R28/Q28)-1</f>
+        <f t="shared" ref="R29" si="25">(R28/Q28)-1</f>
         <v>-4.7876270400202419</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="19">(S28/R28)-1</f>
+        <f t="shared" ref="S29" si="26">(S28/R28)-1</f>
         <v>-0.29033802440545109</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29" si="20">(T28/S28)-1</f>
+        <f t="shared" ref="T29" si="27">(T28/S28)-1</f>
         <v>7.7073848036523955</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="21">(U28/T28)-1</f>
+        <f t="shared" ref="U29" si="28">(U28/T28)-1</f>
         <v>-0.88648648648648654</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="22">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="29">(V28/U28)-1</f>
         <v>31.317460317460316</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="23">(W28/V28)-1</f>
+        <f t="shared" ref="W29:X29" si="30">(W28/V28)-1</f>
         <v>-0.64538310412573674</v>
       </c>
+      <c r="X29" s="15">
+        <f t="shared" si="30"/>
+        <v>-0.85595567867036015</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="31">(Y28/X28)-1</f>
+        <v>34.379807692307693</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="32">(Z28/Y28)-1</f>
+        <v>0.22693300720206544</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="33">(AA28/Z28)-1</f>
+        <v>0.18407354081293614</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="34">(AB28/AA28)-1</f>
+        <v>0.13385090262837895</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="35">(AC28/AB28)-1</f>
+        <v>8.4639498432601989E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5453,8 +5744,31 @@
       <c r="W30" s="2">
         <v>5.45E-2</v>
       </c>
+      <c r="X30" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="Y30" s="65">
+        <f>Y28/Y3</f>
+        <v>0.21241773467267058</v>
+      </c>
+      <c r="Z30" s="65">
+        <f t="shared" ref="Z30:AC30" si="36">Z28/Z3</f>
+        <v>0.23478780944456001</v>
+      </c>
+      <c r="AA30" s="65">
+        <f t="shared" si="36"/>
+        <v>0.24909713646636689</v>
+      </c>
+      <c r="AB30" s="65">
+        <f t="shared" si="36"/>
+        <v>0.24973217964565306</v>
+      </c>
+      <c r="AC30" s="65">
+        <f t="shared" si="36"/>
+        <v>0.2419936685562836</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5477,7 +5791,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="12">
         <v>0.04</v>
@@ -5524,8 +5838,26 @@
       <c r="W31" s="12">
         <v>1.51</v>
       </c>
+      <c r="X31" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="Y31" s="66">
+        <v>7.56</v>
+      </c>
+      <c r="Z31" s="66">
+        <v>9.27</v>
+      </c>
+      <c r="AA31" s="66">
+        <v>10.98</v>
+      </c>
+      <c r="AB31" s="66">
+        <v>12.45</v>
+      </c>
+      <c r="AC31" s="66">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5548,7 +5880,7 @@
         <v>0.06</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="12">
         <v>0.04</v>
@@ -5595,8 +5927,11 @@
       <c r="W32" s="12">
         <v>1.48</v>
       </c>
+      <c r="X32" s="12">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -5666,8 +6001,11 @@
       <c r="W33" s="1">
         <v>955000000</v>
       </c>
+      <c r="X33" s="1">
+        <v>992000000</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5737,10 +6075,13 @@
       <c r="W34" s="1">
         <v>974000000</v>
       </c>
+      <c r="X34" s="1">
+        <v>997000000</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5748,237 +6089,247 @@
         <v>0.58021631365479942</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="24">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="37">(D34-C34)/C34</f>
         <v>0.2536242216835401</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>2.6174028436018957</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0.16209162657610918</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>7.0918339736998751E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>1.1933938031110774E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>1.8875776087354561E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>2.2920716864615838E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>2.3045964161369663E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>7.0755136050704839E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>-1.3680864292340495E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>4.3768754342138325E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5.7916855491984366E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" ref="P35" si="25">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="38">(P34-O34)/O34</f>
         <v>4.44016445425384E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="26">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35" si="39">(Q34-P34)/P34</f>
         <v>6.0080301466959758E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" ref="R35" si="27">(R34-Q34)/Q34</f>
+        <f t="shared" ref="R35" si="40">(R34-Q34)/Q34</f>
         <v>5.8293924101522412E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" ref="S35" si="28">(S34-R34)/R34</f>
+        <f t="shared" ref="S35" si="41">(S34-R34)/R34</f>
         <v>4.9100493132843107E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" ref="T35" si="29">(T34-S34)/S34</f>
+        <f t="shared" ref="T35" si="42">(T34-S34)/S34</f>
         <v>5.4998788453004231E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" ref="U35" si="30">(U34-T34)/T34</f>
+        <f t="shared" ref="U35" si="43">(U34-T34)/T34</f>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" ref="V35" si="31">(V34-U34)/U34</f>
+        <f t="shared" ref="V35" si="44">(V34-U34)/U34</f>
         <v>9.4117647058823528E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" ref="W35" si="32">(W34-V34)/V34</f>
+        <f t="shared" ref="W35:X35" si="45">(W34-V34)/V34</f>
         <v>4.7311827956989246E-2</v>
       </c>
+      <c r="X35" s="22">
+        <f t="shared" si="45"/>
+        <v>2.3613963039014373E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="X36" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>8709000</v>
@@ -6040,16 +6391,19 @@
       <c r="W38" s="1">
         <v>5464000000</v>
       </c>
+      <c r="X38" s="1">
+        <v>7016000000</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>7300000</v>
@@ -6111,16 +6465,19 @@
       <c r="W39" s="1">
         <v>5073000000</v>
       </c>
+      <c r="X39" s="1">
+        <v>5492000000</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>16009000</v>
@@ -6182,16 +6539,19 @@
       <c r="W40" s="1">
         <v>10537000000</v>
       </c>
+      <c r="X40" s="1">
+        <v>12508000000</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>9581000</v>
@@ -6253,87 +6613,93 @@
       <c r="W41" s="1">
         <v>9739000000</v>
       </c>
+      <c r="X41" s="1">
+        <v>10755000000</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>4377000</v>
@@ -6395,16 +6761,19 @@
       <c r="W43" s="1">
         <v>2574000000</v>
       </c>
+      <c r="X43" s="1">
+        <v>3132000000</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>29967000</v>
@@ -6466,16 +6835,19 @@
       <c r="W44" s="10">
         <v>22850000000</v>
       </c>
+      <c r="X44" s="10">
+        <v>26395000000</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>4988000</v>
@@ -6537,28 +6909,31 @@
       <c r="W45" s="1">
         <v>5695000000</v>
       </c>
+      <c r="X45" s="1">
+        <v>6592000000</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1">
         <v>6705000</v>
@@ -6608,28 +6983,31 @@
       <c r="W46" s="1">
         <v>47937000000</v>
       </c>
+      <c r="X46" s="1">
+        <v>48568000000</v>
+      </c>
     </row>
-    <row r="47" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>11489000</v>
@@ -6679,28 +7057,31 @@
       <c r="W47" s="1">
         <v>8978000000</v>
       </c>
+      <c r="X47" s="1">
+        <v>7125000000</v>
+      </c>
     </row>
-    <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1">
         <v>18194000</v>
@@ -6750,34 +7131,37 @@
       <c r="W48" s="1">
         <v>56915000000</v>
       </c>
+      <c r="X48" s="1">
+        <v>55693000000</v>
+      </c>
     </row>
-    <row r="49" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1">
         <v>184962000</v>
@@ -6821,25 +7205,28 @@
       <c r="W49" s="1">
         <v>4784000000</v>
       </c>
+      <c r="X49" s="1">
+        <v>4672000000</v>
+      </c>
     </row>
-    <row r="50" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1">
         <v>10416000</v>
@@ -6881,10 +7268,10 @@
         <v>36523000</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1">
         <v>2693000000</v>
@@ -6892,16 +7279,19 @@
       <c r="W50" s="1">
         <v>2623000000</v>
       </c>
+      <c r="X50" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="51" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>4718000</v>
@@ -6963,16 +7353,19 @@
       <c r="W51" s="1">
         <v>2342000000</v>
       </c>
+      <c r="X51" s="1">
+        <v>5497000000</v>
+      </c>
     </row>
-    <row r="52" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>9706000</v>
@@ -7034,8 +7427,11 @@
       <c r="W52" s="1">
         <v>72359000000</v>
       </c>
+      <c r="X52" s="1">
+        <v>72454000000</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -7046,67 +7442,70 @@
         <v>29713000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -7176,16 +7575,19 @@
       <c r="W54" s="11">
         <v>95209000000</v>
       </c>
+      <c r="X54" s="11">
+        <v>98849000000</v>
+      </c>
     </row>
-    <row r="55" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>606000</v>
@@ -7245,18 +7647,21 @@
         <v>4355000000</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X55" s="1">
+        <v>6743000000</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>531000</v>
@@ -7274,16 +7679,16 @@
         <v>176000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1">
         <v>496149000</v>
@@ -7295,7 +7700,7 @@
         <v>572159000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1">
         <v>15402000</v>
@@ -7318,34 +7723,37 @@
       <c r="W56" s="1">
         <v>686000000</v>
       </c>
+      <c r="X56" s="1">
+        <v>1772000000</v>
+      </c>
     </row>
-    <row r="57" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1">
         <v>3619000</v>
@@ -7378,27 +7786,30 @@
         <v>305861000</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1">
         <v>19171000</v>
@@ -7460,16 +7871,19 @@
       <c r="W58" s="1">
         <v>15628000000</v>
       </c>
+      <c r="X58" s="1">
+        <v>17376000000</v>
+      </c>
     </row>
-    <row r="59" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>8487000</v>
@@ -7523,24 +7937,27 @@
         <v>2523000000</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W59" s="1">
         <v>5474000000</v>
       </c>
+      <c r="X59" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="60" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>28795000</v>
@@ -7602,22 +8019,25 @@
       <c r="W60" s="10">
         <v>21788000000</v>
       </c>
+      <c r="X60" s="10">
+        <v>25891000000</v>
+      </c>
     </row>
-    <row r="61" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>78000</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>721000</v>
@@ -7629,7 +8049,7 @@
         <v>6000</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>20106000</v>
@@ -7673,34 +8093,37 @@
       <c r="W61" s="1">
         <v>13295000000</v>
       </c>
+      <c r="X61" s="1">
+        <v>12316000000</v>
+      </c>
     </row>
-    <row r="62" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1">
         <v>10263000</v>
@@ -7730,63 +8153,66 @@
         <v>37113000</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1">
         <v>18481000</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1">
         <v>108760000</v>
@@ -7804,27 +8230,30 @@
         <v>115717000</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>66265000</v>
@@ -7845,13 +8274,13 @@
         <v>22674000</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>17551000</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1">
         <v>37258000</v>
@@ -7869,10 +8298,10 @@
         <v>66000</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="1">
         <v>704000000</v>
@@ -7886,16 +8315,19 @@
       <c r="W64" s="1">
         <v>1995000000</v>
       </c>
+      <c r="X64" s="1">
+        <v>2283000000</v>
+      </c>
     </row>
-    <row r="65" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>66343000</v>
@@ -7957,8 +8389,11 @@
       <c r="W65" s="1">
         <v>15290000000</v>
       </c>
+      <c r="X65" s="1">
+        <v>14599000000</v>
+      </c>
     </row>
-    <row r="66" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
@@ -7969,67 +8404,70 @@
         <v>19924000</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -8099,16 +8537,19 @@
       <c r="W67" s="10">
         <v>37078000000</v>
       </c>
+      <c r="X67" s="10">
+        <v>40490000000</v>
+      </c>
     </row>
-    <row r="68" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>29000</v>
@@ -8170,8 +8611,11 @@
       <c r="W68" s="1">
         <v>1000000</v>
       </c>
+      <c r="X68" s="1">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="69" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
@@ -8241,16 +8685,19 @@
       <c r="W69" s="1">
         <v>7377000000</v>
       </c>
+      <c r="X69" s="1">
+        <v>7585000000</v>
+      </c>
     </row>
-    <row r="70" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-11156000</v>
@@ -8312,8 +8759,11 @@
       <c r="W70" s="1">
         <v>-166000000</v>
       </c>
+      <c r="X70" s="1">
+        <v>-274000000</v>
+      </c>
     </row>
-    <row r="71" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
@@ -8383,8 +8833,11 @@
       <c r="W71" s="1">
         <v>50919000000</v>
       </c>
+      <c r="X71" s="1">
+        <v>51047000000</v>
+      </c>
     </row>
-    <row r="72" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
@@ -8454,8 +8907,11 @@
       <c r="W72" s="10">
         <v>58131000000</v>
       </c>
+      <c r="X72" s="10">
+        <v>58359000000</v>
+      </c>
     </row>
-    <row r="73" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
@@ -8525,158 +8981,167 @@
       <c r="W73" s="11">
         <v>95209000000</v>
       </c>
+      <c r="X73" s="11">
+        <v>98849000000</v>
+      </c>
     </row>
-    <row r="74" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="X74" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>-9716000</v>
@@ -8738,16 +9203,19 @@
       <c r="W76" s="1">
         <v>1444000000</v>
       </c>
+      <c r="X76" s="1">
+        <v>208000000</v>
+      </c>
     </row>
-    <row r="77" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>5549000</v>
@@ -8809,111 +9277,117 @@
       <c r="W77" s="1">
         <v>3298000000</v>
       </c>
+      <c r="X77" s="1">
+        <v>3786000000</v>
+      </c>
     </row>
-    <row r="78" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>-970000</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1">
         <v>-2003000000</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1">
         <v>120429000</v>
@@ -8951,109 +9425,116 @@
       <c r="W79" s="1">
         <v>2779000000</v>
       </c>
+      <c r="X79" s="1">
+        <v>3279000000</v>
+      </c>
     </row>
-    <row r="80" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:W80" si="33">B79/B3</f>
+        <f t="shared" ref="B80:W80" si="46">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>7.2672841566096755E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.10114893235898434</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.12436909771342487</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.12362555370261334</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.10510020682650283</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>8.9036863362458932E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>9.7756025273642091E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>9.5134719311390101E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>9.659689805752146E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.10439817522517253</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.10304912478825522</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.10489959232975993</v>
       </c>
+      <c r="X80" s="15">
+        <f t="shared" ref="X80" si="47">X79/X3</f>
+        <v>0.10458662924215362</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>4405000</v>
@@ -9115,34 +9596,37 @@
       <c r="W81" s="1">
         <v>-1658000000</v>
       </c>
+      <c r="X81" s="1">
+        <v>-162000000</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1">
         <v>-44798000</v>
@@ -9186,109 +9670,115 @@
       <c r="W82" s="1">
         <v>-1824000000</v>
       </c>
+      <c r="X82" s="1">
+        <v>-995000000</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD83" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE83" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF83" s="72"/>
     </row>
-    <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1">
         <v>8512000</v>
@@ -9332,32 +9822,35 @@
       <c r="W84" s="1">
         <v>507000000</v>
       </c>
-      <c r="AD84" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE84" s="64"/>
+      <c r="X84" s="1">
+        <v>528000000</v>
+      </c>
+      <c r="AE84" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF84" s="74"/>
     </row>
-    <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1">
         <v>-39565000</v>
@@ -9407,23 +9900,26 @@
       <c r="W85" s="1">
         <v>346000000</v>
       </c>
-      <c r="AD85" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE85" s="24">
-        <f>W17</f>
-        <v>0</v>
+      <c r="X85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE85" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF85" s="24">
+        <f>X17</f>
+        <v>287160000</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>4975000</v>
@@ -9485,23 +9981,26 @@
       <c r="W86" s="1">
         <v>137000000</v>
       </c>
-      <c r="AD86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE86" s="24">
-        <f>W56</f>
-        <v>686000000</v>
+      <c r="X86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE86" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF86" s="24">
+        <f>X56</f>
+        <v>1772000000</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>5213000</v>
@@ -9563,23 +10062,26 @@
       <c r="W87" s="10">
         <v>6000000000</v>
       </c>
-      <c r="AD87" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE87" s="24">
-        <f>W61</f>
-        <v>13295000000</v>
+      <c r="X87" s="10">
+        <v>7111000000</v>
+      </c>
+      <c r="AE87" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF87" s="24">
+        <f>X61</f>
+        <v>12316000000</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-2022000</v>
@@ -9600,10 +10102,10 @@
         <v>-43552000</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L88" s="1">
         <v>-277944000</v>
@@ -9630,152 +10132,159 @@
         <v>0</v>
       </c>
       <c r="T88" s="1">
+        <v>-595000000</v>
+      </c>
+      <c r="U88" s="1">
+        <v>-643000000</v>
+      </c>
+      <c r="V88" s="1">
+        <v>-710000000</v>
+      </c>
+      <c r="W88" s="1">
+        <v>-717000000</v>
+      </c>
+      <c r="X88" s="1">
+        <v>-798000000</v>
+      </c>
+      <c r="AE88" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF88" s="31">
+        <f>AF85/(AF86+AF87)</f>
+        <v>2.0383304940374786E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:W89" si="48">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="48"/>
+        <v>3.9654056598223214E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="48"/>
+        <v>3.0367724399362653E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="48"/>
+        <v>2.4425230333097094E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="48"/>
+        <v>7.5628435052298312E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="48"/>
+        <v>4.450430297446379E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="48"/>
+        <v>5.8170161613463334E-2</v>
+      </c>
+      <c r="J89" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K89" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="48"/>
+        <v>0.16772521798111081</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="48"/>
+        <v>8.6718119564675473E-3</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="48"/>
+        <v>1.346143443288052E-3</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="U88" s="1">
+      <c r="P89" s="15">
+        <f t="shared" si="48"/>
+        <v>2.3528980461092461E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="48"/>
+        <v>6.3801142785834444E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="V88" s="1">
+      <c r="S89" s="15">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="W88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE88" s="33">
-        <f>AE85/(AE86+AE87)</f>
-        <v>0</v>
+      <c r="T89" s="15">
+        <f t="shared" si="48"/>
+        <v>4.4797470260502938E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="48"/>
+        <v>3.7606737630132177E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="48"/>
+        <v>3.3408620365142104E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="48"/>
+        <v>2.7064774271478183E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" ref="X89" si="49">(-1*X88)/X3</f>
+        <v>2.5452921663689718E-2</v>
+      </c>
+      <c r="AE89" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF89" s="24">
+        <f>X27</f>
+        <v>452000000</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:W89" si="34">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="34"/>
-        <v>3.9654056598223214E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="34"/>
-        <v>3.0367724399362653E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="34"/>
-        <v>2.4425230333097094E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="34"/>
-        <v>7.5628435052298312E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="34"/>
-        <v>4.450430297446379E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="34"/>
-        <v>5.8170161613463334E-2</v>
-      </c>
-      <c r="J89" s="15" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K89" s="15" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="34"/>
-        <v>0.16772521798111081</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="34"/>
-        <v>8.6718119564675473E-3</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="34"/>
-        <v>1.346143443288052E-3</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="34"/>
-        <v>2.3528980461092461E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="34"/>
-        <v>6.3801142785834444E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE89" s="24">
-        <f>W27</f>
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-15502000</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-27907000</v>
@@ -9819,23 +10328,26 @@
       <c r="W90" s="1">
         <v>-14876000000</v>
       </c>
-      <c r="AD90" s="23" t="s">
+      <c r="X90" s="1">
+        <v>-439000000</v>
+      </c>
+      <c r="AE90" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="24">
-        <f>W25</f>
-        <v>1532000000</v>
+      <c r="AF90" s="24">
+        <f>X25</f>
+        <v>660000000</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-27977000</v>
@@ -9897,23 +10409,26 @@
       <c r="W91" s="1">
         <v>-7392000000</v>
       </c>
-      <c r="AD91" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE91" s="33">
-        <f>AE89/AE90</f>
-        <v>5.7441253263707574E-2</v>
+      <c r="X91" s="1">
+        <v>-5327000000</v>
+      </c>
+      <c r="AE91" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF91" s="31">
+        <f>AF89/AF90</f>
+        <v>0.68484848484848482</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>20677000</v>
@@ -9975,23 +10490,26 @@
       <c r="W92" s="1">
         <v>8449000000</v>
       </c>
-      <c r="AD92" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE92" s="35">
-        <f>AE88*(1-AE91)</f>
-        <v>0</v>
+      <c r="X92" s="1">
+        <v>4575000000</v>
+      </c>
+      <c r="AE92" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF92" s="33">
+        <f>AF88*(1-AF91)</f>
+        <v>6.4238294357544783E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-233000</v>
@@ -10009,7 +10527,7 @@
         <v>-2777000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1">
         <v>-61059000</v>
@@ -10053,20 +10571,23 @@
       <c r="W93" s="1">
         <v>-717000000</v>
       </c>
-      <c r="AD93" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE93" s="64"/>
+      <c r="X93" s="1">
+        <v>-798000000</v>
+      </c>
+      <c r="AE93" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF93" s="74"/>
     </row>
-    <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-9555000</v>
@@ -10128,40 +10649,44 @@
       <c r="W94" s="10">
         <v>-14536000000</v>
       </c>
-      <c r="AD94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE94" s="36">
-        <v>4.095E-2</v>
+      <c r="X94" s="10">
+        <v>-1989000000</v>
+      </c>
+      <c r="AE94" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF94" s="34">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1">
         <v>-997000</v>
@@ -10205,23 +10730,26 @@
       <c r="W95" s="1">
         <v>-1357000000</v>
       </c>
-      <c r="AD95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE95" s="56" cm="1">
-        <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2358</v>
+      <c r="X95" s="1">
+        <v>-423000000</v>
+      </c>
+      <c r="AE95" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF95" s="54" cm="1">
+        <f t="array" ref="AF95">_FV(A1,"Beta")</f>
+        <v>1.2126999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>2131000</v>
@@ -10242,63 +10770,66 @@
         <v>60910000</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD96" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE96" s="36">
+        <v>91</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE96" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>-342000</v>
@@ -10316,142 +10847,148 @@
         <v>-12000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1">
         <v>-171964000</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD97" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE97" s="35">
-        <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.415119000000001E-2</v>
+        <v>91</v>
+      </c>
+      <c r="X97" s="1">
+        <v>-4000000000</v>
+      </c>
+      <c r="AE97" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF97" s="33">
+        <f>(AF94)+((AF95)*(AF96-AF94))</f>
+        <v>9.3947979000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD98" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE98" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF98" s="74"/>
     </row>
-    <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>-757000</v>
@@ -10513,23 +11050,26 @@
       <c r="W99" s="1">
         <v>9195000000</v>
       </c>
-      <c r="AD99" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE99" s="24">
-        <f>AE86+AE87</f>
-        <v>13981000000</v>
+      <c r="X99" s="1">
+        <v>861000000</v>
+      </c>
+      <c r="AE99" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF99" s="24">
+        <f>AF86+AF87</f>
+        <v>14088000000</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>1032000</v>
@@ -10591,23 +11131,26 @@
       <c r="W100" s="10">
         <v>7838000000</v>
       </c>
-      <c r="AD100" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE100" s="33">
-        <f>AE99/AE103</f>
-        <v>6.2164920858776465E-2</v>
+      <c r="X100" s="10">
+        <v>-3562000000</v>
+      </c>
+      <c r="AE100" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF100" s="31">
+        <f>AF99/AF103</f>
+        <v>6.3507387512179242E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>310000</v>
@@ -10669,23 +11212,26 @@
       <c r="W101" s="1">
         <v>-33000000</v>
       </c>
-      <c r="AD101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE101" s="48" cm="1">
-        <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>210920758208</v>
+      <c r="X101" s="1">
+        <v>-8000000</v>
+      </c>
+      <c r="AE101" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF101" s="46" cm="1">
+        <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
+        <v>207744460000</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>-3000000</v>
@@ -10747,23 +11293,26 @@
       <c r="W102" s="10">
         <v>-731000000</v>
       </c>
-      <c r="AD102" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE102" s="33">
-        <f>AE101/AE103</f>
-        <v>0.93783507914122355</v>
+      <c r="X102" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE102" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF102" s="31">
+        <f>AF101/AF103</f>
+        <v>0.93649261248782079</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>11709000</v>
@@ -10825,23 +11374,26 @@
       <c r="W103" s="1">
         <v>6195000000</v>
       </c>
-      <c r="AD103" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE103" s="37">
-        <f>AE99+AE101</f>
-        <v>224901758208</v>
+      <c r="X103" s="1">
+        <v>7016000000</v>
+      </c>
+      <c r="AE103" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF103" s="35">
+        <f>AF99+AF101</f>
+        <v>221832460000</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>8709000</v>
@@ -10903,384 +11455,474 @@
       <c r="W104" s="11">
         <v>5464000000</v>
       </c>
-      <c r="AD104" s="63" t="s">
+      <c r="X104" s="11">
+        <v>7016000000</v>
+      </c>
+      <c r="AE104" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF104" s="74"/>
+    </row>
+    <row r="105" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:W105" si="50">(C22*(1-$AF$91))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="50"/>
+        <v>4622909.0909090899</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="50"/>
+        <v>15456733.333333334</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="50"/>
+        <v>41143787.878787875</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="50"/>
+        <v>49638175.757575758</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="50"/>
+        <v>62635084.848484851</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="50"/>
+        <v>123308412.12121212</v>
+      </c>
+      <c r="J105" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K105" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="50"/>
+        <v>-42051672.727272719</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="50"/>
+        <v>231584909.09090909</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="50"/>
+        <v>425024575.75757575</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="50"/>
+        <v>278002345.45454544</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="50"/>
+        <v>415072539.39393938</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="50"/>
+        <v>448589157.57575762</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="50"/>
+        <v>794055551.5151515</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="50"/>
+        <v>1191847642.4242425</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="50"/>
+        <v>363606060.6060605</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="50"/>
+        <v>1255600000</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="50"/>
+        <v>1087393939.3939395</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="50"/>
+        <v>1095703030.3030305</v>
+      </c>
+      <c r="X105" s="1">
+        <f>(X22*(1-$AF$91))+X77+X88+X81</f>
+        <v>3150606060.6060605</v>
+      </c>
+      <c r="Y105" s="53">
+        <f>X105*(1+$AF$106)</f>
+        <v>3516946798.2716246</v>
+      </c>
+      <c r="Z105" s="53">
+        <f t="shared" ref="Z105:AC105" si="51">Y105*(1+$AF$106)</f>
+        <v>3925884272.4036746</v>
+      </c>
+      <c r="AA105" s="53">
+        <f t="shared" si="51"/>
+        <v>4382371472.8584785</v>
+      </c>
+      <c r="AB105" s="53">
+        <f t="shared" si="51"/>
+        <v>4891937304.7043905</v>
+      </c>
+      <c r="AC105" s="53">
+        <f t="shared" si="51"/>
+        <v>5460753553.4976025</v>
+      </c>
+      <c r="AD105" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE105" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF105" s="26">
+        <f>(AF100*AF92)+(AF102*AF97)</f>
+        <v>8.8389548916949529E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:X106" si="52">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="52"/>
+        <v>4.9119398307740516</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="52"/>
+        <v>1.7333156639279088</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.40522457528508271</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.22967471259608874</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.8038293621844872</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="52"/>
+        <v>4.8375154769385809E-2</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.28790846182150531</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="52"/>
+        <v>-0.58412054744021014</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="52"/>
+        <v>3.65603324099723</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.32598933382832751</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="52"/>
+        <v>3.4402986413970105E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.31311387520625167</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.19278961450797749</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.88122069316176543</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.29777769926512154</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.27181436138403159</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.31573314306100597</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.10927331887201741</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.29137130285993651</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="52"/>
+        <v>0.194964982017793</v>
+      </c>
+      <c r="Y106" s="58">
+        <v>9686000000</v>
+      </c>
+      <c r="Z106" s="58">
+        <v>11560000000</v>
+      </c>
+      <c r="AA106" s="58">
+        <v>13699000000</v>
+      </c>
+      <c r="AB106" s="58">
+        <v>16535000000</v>
+      </c>
+      <c r="AC106" s="58">
+        <v>15052000000</v>
+      </c>
+      <c r="AD106" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE106" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF106" s="38">
+        <f>(SUM(Y4:AC4)/5)</f>
+        <v>0.1162762753002176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3191000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>18865000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>51564000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>72459000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>89101000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>160723000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>168498000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>217010000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>90250000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>420207000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>557190000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>576359000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>756825000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>902733000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1698240000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2203938000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2803000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>3688000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>4091000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>5283000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>6313000000</v>
+      </c>
+      <c r="Y107" s="36"/>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="60">
+        <f>AC106*(1+AF107)/(AF108-AF107)</f>
+        <v>243388701506.8295</v>
+      </c>
+      <c r="AD107" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="AE104" s="64"/>
+      <c r="AE107" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF107" s="42">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>4.9119398307740516</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>1.7333156639279088</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.40522457528508271</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="35">(H106/G106)-1</f>
-        <v>0.22967471259608874</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="35"/>
-        <v>0.8038293621844872</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="35"/>
-        <v>4.8375154769385809E-2</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="35"/>
-        <v>0.28790846182150531</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="35"/>
-        <v>-0.58412054744021014</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="35"/>
-        <v>3.65603324099723</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="35"/>
-        <v>0.32598933382832751</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="35"/>
-        <v>3.4402986413970105E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" ref="P105" si="36">(P106/O106)-1</f>
-        <v>0.31311387520625167</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="37">(Q106/P106)-1</f>
-        <v>0.19278961450797749</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" ref="R105" si="38">(R106/Q106)-1</f>
-        <v>0.88122069316176543</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" ref="S105" si="39">(S106/R106)-1</f>
-        <v>0.29777769926512154</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" ref="T105" si="40">(T106/S106)-1</f>
-        <v>0.27181436138403159</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" ref="U105" si="41">(U106/T106)-1</f>
-        <v>0.31573314306100597</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" ref="V105" si="42">(V106/U106)-1</f>
-        <v>0.10927331887201741</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" ref="W105" si="43">(W106/V106)-1</f>
-        <v>0.29137130285993651</v>
-      </c>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE105" s="26">
-        <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>8.8298288724890386E-2</v>
+    <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y108" s="39">
+        <f>Y107+Y105</f>
+        <v>3516946798.2716246</v>
+      </c>
+      <c r="Z108" s="39">
+        <f>Z107+Z105</f>
+        <v>3925884272.4036746</v>
+      </c>
+      <c r="AA108" s="39">
+        <f>AA107+AA105</f>
+        <v>4382371472.8584785</v>
+      </c>
+      <c r="AB108" s="39">
+        <f>AB107+AB105</f>
+        <v>4891937304.7043905</v>
+      </c>
+      <c r="AC108" s="60">
+        <f>AC107+AC106</f>
+        <v>258440701506.8295</v>
+      </c>
+      <c r="AD108" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE108" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF108" s="44">
+        <f>AF105</f>
+        <v>8.8389548916949529E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>3191000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>18865000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>51564000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>72459000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>89101000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>160723000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>168498000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>217010000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>90250000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>420207000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>557190000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>576359000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>756825000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>902733000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>1698240000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>2203938000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2803000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>3688000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>4091000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>5283000000</v>
-      </c>
-      <c r="X106" s="55">
-        <f>W106*(1+$AE$106)</f>
-        <v>6129305316.8925457</v>
-      </c>
-      <c r="Y106" s="55">
-        <f t="shared" ref="Y106:AB106" si="44">X106*(1+$AE$106)</f>
-        <v>7111183734.1827049</v>
-      </c>
-      <c r="Z106" s="55">
-        <f t="shared" si="44"/>
-        <v>8250353259.7626047</v>
-      </c>
-      <c r="AA106" s="55">
-        <f t="shared" si="44"/>
-        <v>9572010997.7862339</v>
-      </c>
-      <c r="AB106" s="55">
-        <f t="shared" si="44"/>
-        <v>11105390479.289246</v>
-      </c>
-      <c r="AC106" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE106" s="40">
-        <f>(SUM(X4:AB4)/5)</f>
-        <v>0.16019407853351231</v>
-      </c>
+    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y109" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z109" s="70"/>
     </row>
-    <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="38"/>
-      <c r="Y107" s="38"/>
-      <c r="Z107" s="38"/>
-      <c r="AA107" s="38"/>
-      <c r="AB107" s="41">
-        <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>179831484714.30005</v>
-      </c>
-      <c r="AC107" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD107" s="43" t="s">
+    <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y110" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="AE107" s="44">
-        <v>2.5000000000000001E-2</v>
+      <c r="Z110" s="46">
+        <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
+        <v>182645715387.51718</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="41">
-        <f t="shared" ref="X108:Z108" si="45">X107+X106</f>
-        <v>6129305316.8925457</v>
-      </c>
-      <c r="Y108" s="41">
-        <f t="shared" si="45"/>
-        <v>7111183734.1827049</v>
-      </c>
-      <c r="Z108" s="41">
-        <f t="shared" si="45"/>
-        <v>8250353259.7626047</v>
-      </c>
-      <c r="AA108" s="41">
-        <f>AA107+AA106</f>
-        <v>9572010997.7862339</v>
-      </c>
-      <c r="AB108" s="41">
-        <f>AB107+AB106</f>
-        <v>190936875193.58929</v>
-      </c>
-      <c r="AC108" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD108" s="45" t="s">
+    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y111" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AE108" s="46">
-        <f>AE105</f>
-        <v>8.8298288724890386E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y109" s="60"/>
-    </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y110" s="48">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>149929482248.00201</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y111" s="48">
+      <c r="Z111" s="46">
         <f>W40</f>
         <v>10537000000</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y112" s="48">
-        <f>AE99</f>
-        <v>13981000000</v>
+    <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y112" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z112" s="46">
+        <f>AF99</f>
+        <v>14088000000</v>
       </c>
     </row>
-    <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="47" t="s">
+    <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y113" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z113" s="46">
+        <f>Z110+Z111-Z112</f>
+        <v>179094715387.51718</v>
+      </c>
+    </row>
+    <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y114" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z114" s="47">
+        <f>X34*(1+(5*AD16))</f>
+        <v>1312865970.7960498</v>
+      </c>
+    </row>
+    <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y115" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z115" s="56">
+        <f>Z113/Z114</f>
+        <v>136.41507920181979</v>
+      </c>
+    </row>
+    <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y116" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z116" s="55" cm="1">
+        <f t="array" ref="Z116">_FV(A1,"Price")</f>
+        <v>213.29</v>
+      </c>
+    </row>
+    <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y117" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Y113" s="48">
-        <f>Y110+Y111-Y112</f>
-        <v>146485482248.00201</v>
+      <c r="Z117" s="50">
+        <f>Z115/Z116-1</f>
+        <v>-0.36042440244821694</v>
       </c>
     </row>
-    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="47" t="s">
+    <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y118" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="Y114" s="49">
-        <f>W34*(1+(5*AC16))</f>
-        <v>1307403073.446146</v>
-      </c>
-    </row>
-    <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y115" s="58">
-        <f>Y113/Y114</f>
-        <v>112.0430915478003</v>
-      </c>
-    </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y116" s="57" cm="1">
-        <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>215.44</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y117" s="52">
-        <f>Y115/Y116-1</f>
-        <v>-0.47993366344318467</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y118" s="53" t="str">
-        <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
+      <c r="Z118" s="51" t="str">
+        <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="X109:Y109"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AD98:AE98"/>
-    <mergeCell ref="AD104:AE104"/>
+    <mergeCell ref="Y109:Z109"/>
+    <mergeCell ref="AE83:AF83"/>
+    <mergeCell ref="AE84:AF84"/>
+    <mergeCell ref="AE93:AF93"/>
+    <mergeCell ref="AE98:AF98"/>
+    <mergeCell ref="AE104:AF104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CRM" display="ROIC.AI | CRM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11328,9 +11970,12 @@
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1108524/000110852422000008/0001108524-22-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="W36" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1108524/000110852422000013/0001108524-22-000013-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="W74" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1108524/000110852422000013/0001108524-22-000013-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/NYSE:CRM/explorer/revenue_proj" xr:uid="{166CE2B9-7B8F-CF4C-8962-AEDC7AE6E743}"/>
+    <hyperlink ref="Y1" r:id="rId46" display="https://finbox.com/NYSE:CRM/explorer/revenue_proj" xr:uid="{166CE2B9-7B8F-CF4C-8962-AEDC7AE6E743}"/>
+    <hyperlink ref="AD106" r:id="rId47" xr:uid="{AB2A6B9C-EAD2-1946-A731-EC72720B1440}"/>
+    <hyperlink ref="X36" r:id="rId48" tooltip="https://www.sec.gov/Archives/edgar/data/1108524/000110852423000011/0001108524-23-000011-index.htm" xr:uid="{7171CE30-2EC4-944C-816F-5FD752358282}"/>
+    <hyperlink ref="X74" r:id="rId49" tooltip="https://www.sec.gov/Archives/edgar/data/1108524/000110852423000011/0001108524-23-000011-index.htm" xr:uid="{6F40A65F-9810-B249-AEC9-426B948D6569}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId47"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>
--- a/Technology/Software/Salesforce.xlsx
+++ b/Technology/Software/Salesforce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E27FBC-A176-3345-9342-A6831847D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0307C6-D995-644D-9824-94923A22582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -921,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1066,6 +1073,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2490,8 +2503,8 @@
     <v>225</v>
     <v>126.34</v>
     <v>1.2126999999999999</v>
-    <v>3.7</v>
-    <v>1.7654E-2</v>
+    <v>-3.29</v>
+    <v>-1.5424999999999999E-2</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
     <v>79390</v>
@@ -2499,24 +2512,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>213.9564</v>
+    <v>210.99</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999867256251</v>
+    <v>45100.776041365621</v>
     <v>0</v>
-    <v>209.09</v>
-    <v>207744460000</v>
+    <v>208.0701</v>
+    <v>204540000000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>209.63</v>
+    <v>210.82</v>
     <v>561.64419999999996</v>
-    <v>209.59</v>
     <v>213.29</v>
+    <v>210</v>
     <v>974000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>3123</v>
-    <v>8776617</v>
+    <v>4948857</v>
+    <v>8827395</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3086,10 +3099,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z94" sqref="Z94"/>
+      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4543,15 +4556,15 @@
       </c>
       <c r="AE16" s="67">
         <f>AF101/X3</f>
-        <v>6.6261948201071705</v>
+        <v>6.5239857106404697</v>
       </c>
       <c r="AF16" s="67">
         <f>AF101/X28</f>
-        <v>998.77144230769227</v>
+        <v>983.36538461538464</v>
       </c>
       <c r="AG16" s="68">
         <f>AF101/X107</f>
-        <v>32.907406938064312</v>
+        <v>32.399809916046252</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -4808,15 +4821,15 @@
       </c>
       <c r="AE19" s="67">
         <f>AF101/Y3</f>
-        <v>5.996549474656506</v>
+        <v>5.9040526498094907</v>
       </c>
       <c r="AF19" s="67">
         <f>AF101/Y28</f>
-        <v>28.229985052316891</v>
+        <v>27.794537301263759</v>
       </c>
       <c r="AG19" s="68">
         <f>AF101/Y106</f>
-        <v>21.447910386124303</v>
+        <v>21.117076192442699</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,7 +4946,7 @@
         <v>0.16143560872624918</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5025,6 +5038,12 @@
       <c r="AC21" s="63">
         <f t="shared" si="21"/>
         <v>0.30376205551056468</v>
+      </c>
+      <c r="AF21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -5099,6 +5118,14 @@
       </c>
       <c r="X22" s="59">
         <v>1030000000</v>
+      </c>
+      <c r="AF22" s="75">
+        <f>(-1*X98)/AF101</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="76">
+        <f>X107/AF101</f>
+        <v>3.0864378605651707E-2</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -10972,8 +10999,8 @@
       <c r="W98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X98" s="1" t="s">
-        <v>91</v>
+      <c r="X98" s="1">
+        <v>0</v>
       </c>
       <c r="AE98" s="73" t="s">
         <v>136</v>
@@ -11139,7 +11166,7 @@
       </c>
       <c r="AF100" s="31">
         <f>AF99/AF103</f>
-        <v>6.3507387512179242E-2</v>
+        <v>6.4438223832263025E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11220,7 +11247,7 @@
       </c>
       <c r="AF101" s="46" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>207744460000</v>
+        <v>204540000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11301,7 +11328,7 @@
       </c>
       <c r="AF102" s="31">
         <f>AF101/AF103</f>
-        <v>0.93649261248782079</v>
+        <v>0.93556177616773695</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11382,7 +11409,7 @@
       </c>
       <c r="AF103" s="35">
         <f>AF99+AF101</f>
-        <v>221832460000</v>
+        <v>218628000000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11583,7 +11610,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.8389548916949529E-2</v>
+        <v>8.8308078259650674E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11784,7 +11811,7 @@
       <c r="AB107" s="36"/>
       <c r="AC107" s="60">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>243388701506.8295</v>
+        <v>243701916471.4277</v>
       </c>
       <c r="AD107" s="40" t="s">
         <v>144</v>
@@ -11815,7 +11842,7 @@
       </c>
       <c r="AC108" s="60">
         <f>AC107+AC106</f>
-        <v>258440701506.8295</v>
+        <v>258753916471.4277</v>
       </c>
       <c r="AD108" s="40" t="s">
         <v>141</v>
@@ -11825,7 +11852,7 @@
       </c>
       <c r="AF108" s="44">
         <f>AF105</f>
-        <v>8.8389548916949529E-2</v>
+        <v>8.8308078259650674E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11840,7 +11867,7 @@
       </c>
       <c r="Z110" s="46">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>182645715387.51718</v>
+        <v>182916763070.05338</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11867,7 +11894,7 @@
       </c>
       <c r="Z113" s="46">
         <f>Z110+Z111-Z112</f>
-        <v>179094715387.51718</v>
+        <v>179365763070.05338</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11885,7 +11912,7 @@
       </c>
       <c r="Z115" s="56">
         <f>Z113/Z114</f>
-        <v>136.41507920181979</v>
+        <v>136.62153415500276</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11894,7 +11921,7 @@
       </c>
       <c r="Z116" s="55" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price")</f>
-        <v>213.29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11903,7 +11930,7 @@
       </c>
       <c r="Z117" s="50">
         <f>Z115/Z116-1</f>
-        <v>-0.36042440244821694</v>
+        <v>-0.34942126592855827</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Salesforce.xlsx
+++ b/Technology/Software/Salesforce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0307C6-D995-644D-9824-94923A22582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AB375-7010-C44C-8CDE-DD485206CDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -567,13 +567,13 @@
     <t>Forward P/FCF</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -928,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -970,115 +917,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1130,7 +1057,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CRM</a:t>
+              <a:t>Salesforce</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2286,13 +2213,13 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>1603375</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2329,7 +2256,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2338,14 +2264,17 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2359,15 +2288,15 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>4.0480000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2375,6 +2304,8 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2502,9 +2433,11 @@
     <v>Powered by Refinitiv</v>
     <v>225</v>
     <v>126.34</v>
-    <v>1.2126999999999999</v>
-    <v>-3.29</v>
-    <v>-1.5424999999999999E-2</v>
+    <v>1.1991000000000001</v>
+    <v>-0.55000000000000004</v>
+    <v>-2.617E-3</v>
+    <v>0.3</v>
+    <v>1.431E-3</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
     <v>79390</v>
@@ -2512,24 +2445,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>210.99</v>
+    <v>212.11</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45100.776041365621</v>
+    <v>45114.999963633592</v>
     <v>0</v>
-    <v>208.0701</v>
-    <v>204540000000</v>
+    <v>209.28</v>
+    <v>204140700000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>210.82</v>
-    <v>561.64419999999996</v>
-    <v>213.29</v>
-    <v>210</v>
+    <v>209.77</v>
+    <v>553.34950000000003</v>
+    <v>210.14</v>
+    <v>209.59</v>
+    <v>209.89</v>
     <v>974000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>4948857</v>
-    <v>8827395</v>
+    <v>3022151</v>
+    <v>8636433</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2561,6 +2495,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2581,6 +2517,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2597,7 +2534,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2608,13 +2545,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2680,13 +2620,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2731,6 +2677,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2738,6 +2687,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3099,10 +3051,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3185,19 +3137,19 @@
       <c r="X1" s="8">
         <v>2023</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2024</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2025</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2026</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2027</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2028</v>
       </c>
     </row>
@@ -3363,19 +3315,19 @@
       <c r="X3" s="1">
         <v>31352000000</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="24">
         <v>34644000000</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="24">
         <v>38456000000</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="24">
         <v>42919000000</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="24">
         <v>48540000000</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="24">
         <v>54332000000</v>
       </c>
       <c r="AD3" s="18" t="s">
@@ -4550,21 +4502,21 @@
       <c r="X16" s="1">
         <v>30322000000</v>
       </c>
-      <c r="AD16" s="29">
+      <c r="AD16" s="25">
         <f>(W35+V35+U35+T35+X35)/5</f>
         <v>6.3363284011243692E-2</v>
       </c>
-      <c r="AE16" s="67">
+      <c r="AE16" s="40">
         <f>AF101/X3</f>
-        <v>6.5239857106404697</v>
-      </c>
-      <c r="AF16" s="67">
+        <v>6.5112496810410816</v>
+      </c>
+      <c r="AF16" s="40">
         <f>AF101/X28</f>
-        <v>983.36538461538464</v>
-      </c>
-      <c r="AG16" s="68">
+        <v>981.44567307692307</v>
+      </c>
+      <c r="AG16" s="41">
         <f>AF101/X107</f>
-        <v>32.399809916046252</v>
+        <v>32.336559480437195</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -4800,36 +4752,36 @@
       <c r="X19" s="10">
         <v>4446000000</v>
       </c>
-      <c r="Y19" s="62">
+      <c r="Y19" s="35">
         <v>10782000000</v>
       </c>
-      <c r="Z19" s="62">
+      <c r="Z19" s="35">
         <v>12830000000</v>
       </c>
-      <c r="AA19" s="62">
+      <c r="AA19" s="35">
         <v>12461000000</v>
       </c>
-      <c r="AB19" s="62">
+      <c r="AB19" s="35">
         <v>14210000000</v>
       </c>
-      <c r="AC19" s="62">
+      <c r="AC19" s="35">
         <v>16504000000</v>
       </c>
-      <c r="AD19" s="52">
+      <c r="AD19" s="28">
         <f>X40-X56-X61</f>
         <v>-1580000000</v>
       </c>
-      <c r="AE19" s="67">
+      <c r="AE19" s="40">
         <f>AF101/Y3</f>
-        <v>5.9040526498094907</v>
-      </c>
-      <c r="AF19" s="67">
+        <v>5.8925268444752339</v>
+      </c>
+      <c r="AF19" s="40">
         <f>AF101/Y28</f>
-        <v>27.794537301263759</v>
-      </c>
-      <c r="AG19" s="68">
+        <v>27.740277211577659</v>
+      </c>
+      <c r="AG19" s="41">
         <f>AF101/Y106</f>
-        <v>21.117076192442699</v>
+        <v>21.041094619666048</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5016,34 +4968,34 @@
       <c r="W21" s="2">
         <v>0.18229999999999999</v>
       </c>
-      <c r="X21" s="61">
+      <c r="X21" s="34">
         <v>0.14180000000000001</v>
       </c>
-      <c r="Y21" s="63">
+      <c r="Y21" s="36">
         <f>Y19/Y3</f>
         <v>0.31122272254935918</v>
       </c>
-      <c r="Z21" s="63">
+      <c r="Z21" s="36">
         <f t="shared" ref="Z21:AC21" si="21">Z19/Z3</f>
         <v>0.33362804243811106</v>
       </c>
-      <c r="AA21" s="63">
+      <c r="AA21" s="36">
         <f t="shared" si="21"/>
         <v>0.29033761271231856</v>
       </c>
-      <c r="AB21" s="63">
+      <c r="AB21" s="36">
         <f t="shared" si="21"/>
         <v>0.29274824886691386</v>
       </c>
-      <c r="AC21" s="63">
+      <c r="AC21" s="36">
         <f t="shared" si="21"/>
         <v>0.30376205551056468</v>
       </c>
       <c r="AF21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG21" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="AG21" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -5116,16 +5068,16 @@
       <c r="W22" s="10">
         <v>548000000</v>
       </c>
-      <c r="X22" s="59">
+      <c r="X22" s="32">
         <v>1030000000</v>
       </c>
-      <c r="AF22" s="75">
+      <c r="AF22" s="42">
         <f>(-1*X98)/AF101</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="76">
+      <c r="AG22" s="43">
         <f>X107/AF101</f>
-        <v>3.0864378605651707E-2</v>
+        <v>3.0924749449766753E-2</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -5571,19 +5523,19 @@
       <c r="X28" s="11">
         <v>208000000</v>
       </c>
-      <c r="Y28" s="64">
+      <c r="Y28" s="37">
         <v>7359000000</v>
       </c>
-      <c r="Z28" s="64">
+      <c r="Z28" s="37">
         <v>9029000000</v>
       </c>
-      <c r="AA28" s="64">
+      <c r="AA28" s="37">
         <v>10691000000</v>
       </c>
-      <c r="AB28" s="64">
+      <c r="AB28" s="37">
         <v>12122000000</v>
       </c>
-      <c r="AC28" s="64">
+      <c r="AC28" s="37">
         <v>13148000000</v>
       </c>
     </row>
@@ -5774,23 +5726,23 @@
       <c r="X30" s="2">
         <v>6.6E-3</v>
       </c>
-      <c r="Y30" s="65">
+      <c r="Y30" s="38">
         <f>Y28/Y3</f>
         <v>0.21241773467267058</v>
       </c>
-      <c r="Z30" s="65">
+      <c r="Z30" s="38">
         <f t="shared" ref="Z30:AC30" si="36">Z28/Z3</f>
         <v>0.23478780944456001</v>
       </c>
-      <c r="AA30" s="65">
+      <c r="AA30" s="38">
         <f t="shared" si="36"/>
         <v>0.24909713646636689</v>
       </c>
-      <c r="AB30" s="65">
+      <c r="AB30" s="38">
         <f t="shared" si="36"/>
         <v>0.24973217964565306</v>
       </c>
-      <c r="AC30" s="65">
+      <c r="AC30" s="38">
         <f t="shared" si="36"/>
         <v>0.2419936685562836</v>
       </c>
@@ -5868,19 +5820,19 @@
       <c r="X31" s="12">
         <v>0.21</v>
       </c>
-      <c r="Y31" s="66">
+      <c r="Y31" s="39">
         <v>7.56</v>
       </c>
-      <c r="Z31" s="66">
+      <c r="Z31" s="39">
         <v>9.27</v>
       </c>
-      <c r="AA31" s="66">
+      <c r="AA31" s="39">
         <v>10.98</v>
       </c>
-      <c r="AB31" s="66">
+      <c r="AB31" s="39">
         <v>12.45</v>
       </c>
-      <c r="AC31" s="66">
+      <c r="AC31" s="39">
         <v>13.5</v>
       </c>
     </row>
@@ -9774,10 +9726,10 @@
       <c r="X83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE83" s="71" t="s">
+      <c r="AE83" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="AF83" s="72"/>
+      <c r="AF83" s="45"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9852,10 +9804,10 @@
       <c r="X84" s="1">
         <v>528000000</v>
       </c>
-      <c r="AE84" s="73" t="s">
+      <c r="AE84" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="AF84" s="74"/>
+      <c r="AF84" s="46"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9930,10 +9882,10 @@
       <c r="X85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE85" s="23" t="s">
+      <c r="AE85" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="AF85" s="24">
+      <c r="AF85" s="48">
         <f>X17</f>
         <v>287160000</v>
       </c>
@@ -10011,10 +9963,10 @@
       <c r="X86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE86" s="23" t="s">
+      <c r="AE86" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AF86" s="24">
+      <c r="AF86" s="48">
         <f>X56</f>
         <v>1772000000</v>
       </c>
@@ -10092,10 +10044,10 @@
       <c r="X87" s="10">
         <v>7111000000</v>
       </c>
-      <c r="AE87" s="23" t="s">
+      <c r="AE87" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="AF87" s="24">
+      <c r="AF87" s="48">
         <f>X61</f>
         <v>12316000000</v>
       </c>
@@ -10173,10 +10125,10 @@
       <c r="X88" s="1">
         <v>-798000000</v>
       </c>
-      <c r="AE88" s="30" t="s">
+      <c r="AE88" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="AF88" s="31">
+      <c r="AF88" s="50">
         <f>AF85/(AF86+AF87)</f>
         <v>2.0383304940374786E-2</v>
       </c>
@@ -10277,10 +10229,10 @@
         <f t="shared" ref="X89" si="49">(-1*X88)/X3</f>
         <v>2.5452921663689718E-2</v>
       </c>
-      <c r="AE89" s="23" t="s">
+      <c r="AE89" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AF89" s="24">
+      <c r="AF89" s="48">
         <f>X27</f>
         <v>452000000</v>
       </c>
@@ -10358,10 +10310,10 @@
       <c r="X90" s="1">
         <v>-439000000</v>
       </c>
-      <c r="AE90" s="23" t="s">
+      <c r="AE90" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AF90" s="24">
+      <c r="AF90" s="48">
         <f>X25</f>
         <v>660000000</v>
       </c>
@@ -10439,10 +10391,10 @@
       <c r="X91" s="1">
         <v>-5327000000</v>
       </c>
-      <c r="AE91" s="30" t="s">
+      <c r="AE91" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="AF91" s="31">
+      <c r="AF91" s="50">
         <f>AF89/AF90</f>
         <v>0.68484848484848482</v>
       </c>
@@ -10520,10 +10472,10 @@
       <c r="X92" s="1">
         <v>4575000000</v>
       </c>
-      <c r="AE92" s="32" t="s">
+      <c r="AE92" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AF92" s="33">
+      <c r="AF92" s="50">
         <f>AF88*(1-AF91)</f>
         <v>6.4238294357544783E-3</v>
       </c>
@@ -10601,10 +10553,10 @@
       <c r="X93" s="1">
         <v>-798000000</v>
       </c>
-      <c r="AE93" s="73" t="s">
+      <c r="AE93" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="AF93" s="74"/>
+      <c r="AF93" s="46"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10679,12 +10631,12 @@
       <c r="X94" s="10">
         <v>-1989000000</v>
       </c>
-      <c r="AE94" s="23" t="s">
+      <c r="AE94" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AF94" s="34">
+      <c r="AF94" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10760,12 +10712,12 @@
       <c r="X95" s="1">
         <v>-423000000</v>
       </c>
-      <c r="AE95" s="23" t="s">
+      <c r="AE95" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="AF95" s="54" cm="1">
+      <c r="AF95" s="52" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.2126999999999999</v>
+        <v>1.1991000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10841,10 +10793,10 @@
       <c r="X96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE96" s="23" t="s">
+      <c r="AE96" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="AF96" s="34">
+      <c r="AF96" s="51">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10921,12 +10873,12 @@
       <c r="X97" s="1">
         <v>-4000000000</v>
       </c>
-      <c r="AE97" s="32" t="s">
+      <c r="AE97" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="AF97" s="33">
+      <c r="AF97" s="50">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.3947979000000001E-2</v>
+        <v>9.2664832000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11002,10 +10954,10 @@
       <c r="X98" s="1">
         <v>0</v>
       </c>
-      <c r="AE98" s="73" t="s">
+      <c r="AE98" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AF98" s="74"/>
+      <c r="AF98" s="46"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11080,10 +11032,10 @@
       <c r="X99" s="1">
         <v>861000000</v>
       </c>
-      <c r="AE99" s="23" t="s">
+      <c r="AE99" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="AF99" s="24">
+      <c r="AF99" s="48">
         <f>AF86+AF87</f>
         <v>14088000000</v>
       </c>
@@ -11161,12 +11113,12 @@
       <c r="X100" s="10">
         <v>-3562000000</v>
       </c>
-      <c r="AE100" s="30" t="s">
+      <c r="AE100" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="AF100" s="31">
+      <c r="AF100" s="50">
         <f>AF99/AF103</f>
-        <v>6.4438223832263025E-2</v>
+        <v>6.455612850188816E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11242,12 +11194,12 @@
       <c r="X101" s="1">
         <v>-8000000</v>
       </c>
-      <c r="AE101" s="23" t="s">
+      <c r="AE101" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="AF101" s="46" cm="1">
+      <c r="AF101" s="53" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>204540000000</v>
+        <v>204140700000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11323,12 +11275,12 @@
       <c r="X102" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AE102" s="30" t="s">
+      <c r="AE102" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="AF102" s="31">
+      <c r="AF102" s="50">
         <f>AF101/AF103</f>
-        <v>0.93556177616773695</v>
+        <v>0.93544387149811181</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11404,12 +11356,12 @@
       <c r="X103" s="1">
         <v>7016000000</v>
       </c>
-      <c r="AE103" s="32" t="s">
+      <c r="AE103" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="AF103" s="35">
+      <c r="AF103" s="54">
         <f>AF99+AF101</f>
-        <v>218628000000</v>
+        <v>218228700000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11485,10 +11437,10 @@
       <c r="X104" s="11">
         <v>7016000000</v>
       </c>
-      <c r="AE104" s="73" t="s">
+      <c r="AE104" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="AF104" s="74"/>
+      <c r="AF104" s="46"/>
     </row>
     <row r="105" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11582,35 +11534,35 @@
         <f>(X22*(1-$AF$91))+X77+X88+X81</f>
         <v>3150606060.6060605</v>
       </c>
-      <c r="Y105" s="53">
+      <c r="Y105" s="29">
         <f>X105*(1+$AF$106)</f>
         <v>3516946798.2716246</v>
       </c>
-      <c r="Z105" s="53">
+      <c r="Z105" s="29">
         <f t="shared" ref="Z105:AC105" si="51">Y105*(1+$AF$106)</f>
         <v>3925884272.4036746</v>
       </c>
-      <c r="AA105" s="53">
+      <c r="AA105" s="29">
         <f t="shared" si="51"/>
         <v>4382371472.8584785</v>
       </c>
-      <c r="AB105" s="53">
+      <c r="AB105" s="29">
         <f t="shared" si="51"/>
         <v>4891937304.7043905</v>
       </c>
-      <c r="AC105" s="53">
+      <c r="AC105" s="29">
         <f t="shared" si="51"/>
         <v>5460753553.4976025</v>
       </c>
-      <c r="AD105" s="36" t="s">
+      <c r="AD105" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="AE105" s="25" t="s">
+      <c r="AE105" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="AF105" s="26">
+      <c r="AF105" s="56">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.8308078259650674E-2</v>
+        <v>8.709744675633091E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11706,34 +11658,34 @@
         <f t="shared" si="52"/>
         <v>0.194964982017793</v>
       </c>
-      <c r="Y106" s="58">
-        <v>9686000000</v>
-      </c>
-      <c r="Z106" s="58">
-        <v>11560000000</v>
-      </c>
-      <c r="AA106" s="58">
-        <v>13699000000</v>
-      </c>
-      <c r="AB106" s="58">
-        <v>16535000000</v>
-      </c>
-      <c r="AC106" s="58">
+      <c r="Y106" s="31">
+        <v>9702000000</v>
+      </c>
+      <c r="Z106" s="31">
+        <v>11567000000</v>
+      </c>
+      <c r="AA106" s="31">
+        <v>13658000000</v>
+      </c>
+      <c r="AB106" s="31">
+        <v>16560000000</v>
+      </c>
+      <c r="AC106" s="31">
         <v>15052000000</v>
       </c>
-      <c r="AD106" s="36" t="s">
+      <c r="AD106" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="AE106" s="37" t="s">
+      <c r="AE106" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="AF106" s="38">
+      <c r="AF106" s="58">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>0.1162762753002176</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -11805,139 +11757,139 @@
       <c r="X107" s="1">
         <v>6313000000</v>
       </c>
-      <c r="Y107" s="36"/>
-      <c r="Z107" s="36"/>
-      <c r="AA107" s="36"/>
-      <c r="AB107" s="36"/>
-      <c r="AC107" s="60">
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+      <c r="AA107" s="26"/>
+      <c r="AB107" s="26"/>
+      <c r="AC107" s="33">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>243701916471.4277</v>
-      </c>
-      <c r="AD107" s="40" t="s">
+        <v>248453049294.28622</v>
+      </c>
+      <c r="AD107" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AE107" s="41" t="s">
+      <c r="AE107" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AF107" s="42">
+      <c r="AF107" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="39">
-        <f>Y107+Y105</f>
-        <v>3516946798.2716246</v>
-      </c>
-      <c r="Z108" s="39">
-        <f>Z107+Z105</f>
-        <v>3925884272.4036746</v>
-      </c>
-      <c r="AA108" s="39">
-        <f>AA107+AA105</f>
-        <v>4382371472.8584785</v>
-      </c>
-      <c r="AB108" s="39">
-        <f>AB107+AB105</f>
-        <v>4891937304.7043905</v>
-      </c>
-      <c r="AC108" s="60">
+      <c r="Y108" s="33">
+        <f t="shared" ref="Y108:AB108" si="53">Y107+Y106</f>
+        <v>9702000000</v>
+      </c>
+      <c r="Z108" s="33">
+        <f t="shared" si="53"/>
+        <v>11567000000</v>
+      </c>
+      <c r="AA108" s="33">
+        <f t="shared" si="53"/>
+        <v>13658000000</v>
+      </c>
+      <c r="AB108" s="33">
+        <f t="shared" si="53"/>
+        <v>16560000000</v>
+      </c>
+      <c r="AC108" s="33">
         <f>AC107+AC106</f>
-        <v>258753916471.4277</v>
-      </c>
-      <c r="AD108" s="40" t="s">
+        <v>263505049294.28622</v>
+      </c>
+      <c r="AD108" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AE108" s="43" t="s">
+      <c r="AE108" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="AF108" s="44">
+      <c r="AF108" s="58">
         <f>AF105</f>
-        <v>8.8308078259650674E-2</v>
+        <v>8.709744675633091E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="69" t="s">
+      <c r="Y109" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="Z109" s="70"/>
+      <c r="Z109" s="62"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="45" t="s">
+      <c r="Y110" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="Z110" s="46">
+      <c r="Z110" s="53">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>182916763070.05338</v>
+        <v>214759725385.13608</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="45" t="s">
+      <c r="Y111" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="Z111" s="46">
+      <c r="Z111" s="53">
         <f>W40</f>
         <v>10537000000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="45" t="s">
+      <c r="Y112" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="Z112" s="46">
+      <c r="Z112" s="53">
         <f>AF99</f>
         <v>14088000000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="45" t="s">
+      <c r="Y113" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="Z113" s="46">
+      <c r="Z113" s="53">
         <f>Z110+Z111-Z112</f>
-        <v>179365763070.05338</v>
+        <v>211208725385.13608</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z114" s="47">
-        <f>X34*(1+(5*AD16))</f>
-        <v>1312865970.7960498</v>
+      <c r="Y114" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z114" s="63">
+        <f>X34*(1+(5*0.05))</f>
+        <v>1246250000</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="48" t="s">
+      <c r="Y115" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="Z115" s="56">
+      <c r="Z115" s="65">
         <f>Z113/Z114</f>
-        <v>136.62153415500276</v>
+        <v>169.47540652769194</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="45" t="s">
+      <c r="Y116" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="Z116" s="55" cm="1">
+      <c r="Z116" s="66" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price")</f>
-        <v>210</v>
+        <v>209.59</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="49" t="s">
+      <c r="Y117" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="Z117" s="50">
+      <c r="Z117" s="67">
         <f>Z115/Z116-1</f>
-        <v>-0.34942126592855827</v>
+        <v>-0.19139555070522474</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="49" t="s">
+      <c r="Y118" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="Z118" s="51" t="str">
+      <c r="Z118" s="68" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Salesforce.xlsx
+++ b/Technology/Software/Salesforce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AB375-7010-C44C-8CDE-DD485206CDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C41EC8-C138-0E46-8898-C73394241662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,58 +954,59 @@
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1096,10 +1097,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2415098598443204E-2"/>
-          <c:y val="0.1254326701528721"/>
-          <c:w val="0.86114519380905707"/>
-          <c:h val="0.71968123259401739"/>
+          <c:x val="9.9478266010129157E-2"/>
+          <c:y val="0.15205497399347545"/>
+          <c:w val="0.84408202639737118"/>
+          <c:h val="0.62611369502273118"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1629,7 +1630,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.36213921890999956"/>
-          <c:y val="0.92293702790967924"/>
+          <c:y val="0.89103095890052009"/>
           <c:w val="0.27572156218000099"/>
           <c:h val="4.9073150207369118E-2"/>
         </c:manualLayout>
@@ -1647,7 +1648,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2218,8 +2219,8 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>1603375</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2254,8 +2255,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2264,21 +2264,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2288,24 +2290,13 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0480000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3051,10 +3042,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3348,91 +3339,91 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>3.1230910763569462</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>1.2754696773617744</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.88313623972857958</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:T4" si="0">(F3/E3)-1</f>
         <v>0.83679951678243758</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>0.75680793763288445</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>0.60428197523373695</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>0.506141646114046</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.43818485374649385</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>0.21250054561377607</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>0.26927127574424614</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="65">
         <f t="shared" si="0"/>
         <v>0.36774223526209937</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="65">
         <f t="shared" si="0"/>
         <v>0.34575006209908588</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="65">
         <f t="shared" si="0"/>
         <v>0.33466975062250115</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="65">
         <f t="shared" si="0"/>
         <v>0.31996611154548393</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="65">
         <f t="shared" si="0"/>
         <v>0.24073867990574627</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="65">
         <f t="shared" si="0"/>
         <v>0.25869388362398937</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="65">
         <f t="shared" si="0"/>
         <v>0.24881219983260205</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="65">
         <f t="shared" si="0"/>
         <v>0.2673649610324873</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="65">
         <f t="shared" ref="U4" si="1">(U3/T3)-1</f>
         <v>0.28730612859509108</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="65">
         <f t="shared" ref="V4" si="2">(V3/U3)-1</f>
         <v>0.24295239209264241</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="65">
         <f t="shared" ref="W4:AC4" si="3">(W3/V3)-1</f>
         <v>0.24656502917372491</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="65">
         <f t="shared" si="3"/>
         <v>0.18345160803261362</v>
       </c>
@@ -4753,13 +4744,13 @@
         <v>4446000000</v>
       </c>
       <c r="Y19" s="35">
-        <v>10782000000</v>
+        <v>11127000000</v>
       </c>
       <c r="Z19" s="35">
-        <v>12830000000</v>
+        <v>12844000000</v>
       </c>
       <c r="AA19" s="35">
-        <v>12461000000</v>
+        <v>14000000000</v>
       </c>
       <c r="AB19" s="35">
         <v>14210000000</v>
@@ -4781,7 +4772,7 @@
       </c>
       <c r="AG19" s="41">
         <f>AF101/Y106</f>
-        <v>21.041094619666048</v>
+        <v>20.350981955936597</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4879,19 +4870,19 @@
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20" si="16">(Y19/X19)-1</f>
-        <v>1.4251012145748989</v>
+        <v>1.5026990553306341</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" ref="Z20" si="17">(Z19/Y19)-1</f>
-        <v>0.18994620664069739</v>
+        <v>0.15430933764716448</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="18">(AA19/Z19)-1</f>
-        <v>-2.8760717069368669E-2</v>
+        <v>9.0003114294612274E-2</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="19">(AB19/AA19)-1</f>
-        <v>0.14035791670010433</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" ref="AC20" si="20">(AC19/AB19)-1</f>
@@ -4973,15 +4964,15 @@
       </c>
       <c r="Y21" s="36">
         <f>Y19/Y3</f>
-        <v>0.31122272254935918</v>
+        <v>0.32118115691028748</v>
       </c>
       <c r="Z21" s="36">
         <f t="shared" ref="Z21:AC21" si="21">Z19/Z3</f>
-        <v>0.33362804243811106</v>
+        <v>0.33399209486166009</v>
       </c>
       <c r="AA21" s="36">
         <f t="shared" si="21"/>
-        <v>0.29033761271231856</v>
+        <v>0.32619585731261214</v>
       </c>
       <c r="AB21" s="36">
         <f t="shared" si="21"/>
@@ -5827,7 +5818,7 @@
         <v>9.27</v>
       </c>
       <c r="AA31" s="39">
-        <v>10.98</v>
+        <v>10.93</v>
       </c>
       <c r="AB31" s="39">
         <v>12.45</v>
@@ -9726,10 +9717,10 @@
       <c r="X83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE83" s="44" t="s">
+      <c r="AE83" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="AF83" s="45"/>
+      <c r="AF83" s="68"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9804,10 +9795,10 @@
       <c r="X84" s="1">
         <v>528000000</v>
       </c>
-      <c r="AE84" s="46" t="s">
+      <c r="AE84" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="AF84" s="46"/>
+      <c r="AF84" s="69"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9882,10 +9873,10 @@
       <c r="X85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE85" s="47" t="s">
+      <c r="AE85" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AF85" s="48">
+      <c r="AF85" s="45">
         <f>X17</f>
         <v>287160000</v>
       </c>
@@ -9963,10 +9954,10 @@
       <c r="X86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE86" s="47" t="s">
+      <c r="AE86" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AF86" s="48">
+      <c r="AF86" s="45">
         <f>X56</f>
         <v>1772000000</v>
       </c>
@@ -10044,10 +10035,10 @@
       <c r="X87" s="10">
         <v>7111000000</v>
       </c>
-      <c r="AE87" s="47" t="s">
+      <c r="AE87" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AF87" s="48">
+      <c r="AF87" s="45">
         <f>X61</f>
         <v>12316000000</v>
       </c>
@@ -10125,10 +10116,10 @@
       <c r="X88" s="1">
         <v>-798000000</v>
       </c>
-      <c r="AE88" s="49" t="s">
+      <c r="AE88" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AF88" s="50">
+      <c r="AF88" s="47">
         <f>AF85/(AF86+AF87)</f>
         <v>2.0383304940374786E-2</v>
       </c>
@@ -10229,10 +10220,10 @@
         <f t="shared" ref="X89" si="49">(-1*X88)/X3</f>
         <v>2.5452921663689718E-2</v>
       </c>
-      <c r="AE89" s="47" t="s">
+      <c r="AE89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AF89" s="48">
+      <c r="AF89" s="45">
         <f>X27</f>
         <v>452000000</v>
       </c>
@@ -10310,10 +10301,10 @@
       <c r="X90" s="1">
         <v>-439000000</v>
       </c>
-      <c r="AE90" s="47" t="s">
+      <c r="AE90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AF90" s="48">
+      <c r="AF90" s="45">
         <f>X25</f>
         <v>660000000</v>
       </c>
@@ -10391,10 +10382,10 @@
       <c r="X91" s="1">
         <v>-5327000000</v>
       </c>
-      <c r="AE91" s="49" t="s">
+      <c r="AE91" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="AF91" s="50">
+      <c r="AF91" s="47">
         <f>AF89/AF90</f>
         <v>0.68484848484848482</v>
       </c>
@@ -10472,10 +10463,10 @@
       <c r="X92" s="1">
         <v>4575000000</v>
       </c>
-      <c r="AE92" s="49" t="s">
+      <c r="AE92" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AF92" s="50">
+      <c r="AF92" s="47">
         <f>AF88*(1-AF91)</f>
         <v>6.4238294357544783E-3</v>
       </c>
@@ -10553,10 +10544,10 @@
       <c r="X93" s="1">
         <v>-798000000</v>
       </c>
-      <c r="AE93" s="46" t="s">
+      <c r="AE93" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="AF93" s="46"/>
+      <c r="AF93" s="69"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10631,12 +10622,12 @@
       <c r="X94" s="10">
         <v>-1989000000</v>
       </c>
-      <c r="AE94" s="47" t="s">
+      <c r="AE94" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AF94" s="51">
+      <c r="AF94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10712,10 +10703,10 @@
       <c r="X95" s="1">
         <v>-423000000</v>
       </c>
-      <c r="AE95" s="47" t="s">
+      <c r="AE95" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="AF95" s="52" cm="1">
+      <c r="AF95" s="49" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
         <v>1.1991000000000001</v>
       </c>
@@ -10793,10 +10784,10 @@
       <c r="X96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE96" s="47" t="s">
+      <c r="AE96" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="AF96" s="51">
+      <c r="AF96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10873,12 +10864,12 @@
       <c r="X97" s="1">
         <v>-4000000000</v>
       </c>
-      <c r="AE97" s="49" t="s">
+      <c r="AE97" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AF97" s="50">
+      <c r="AF97" s="47">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.2664832000000003E-2</v>
+        <v>9.2935608000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10954,10 +10945,10 @@
       <c r="X98" s="1">
         <v>0</v>
       </c>
-      <c r="AE98" s="46" t="s">
+      <c r="AE98" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="AF98" s="46"/>
+      <c r="AF98" s="69"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11032,10 +11023,10 @@
       <c r="X99" s="1">
         <v>861000000</v>
       </c>
-      <c r="AE99" s="47" t="s">
+      <c r="AE99" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="AF99" s="48">
+      <c r="AF99" s="45">
         <f>AF86+AF87</f>
         <v>14088000000</v>
       </c>
@@ -11113,10 +11104,10 @@
       <c r="X100" s="10">
         <v>-3562000000</v>
       </c>
-      <c r="AE100" s="49" t="s">
+      <c r="AE100" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AF100" s="50">
+      <c r="AF100" s="47">
         <f>AF99/AF103</f>
         <v>6.455612850188816E-2</v>
       </c>
@@ -11194,10 +11185,10 @@
       <c r="X101" s="1">
         <v>-8000000</v>
       </c>
-      <c r="AE101" s="47" t="s">
+      <c r="AE101" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AF101" s="53" cm="1">
+      <c r="AF101" s="50" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
         <v>204140700000</v>
       </c>
@@ -11275,10 +11266,10 @@
       <c r="X102" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AE102" s="49" t="s">
+      <c r="AE102" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AF102" s="50">
+      <c r="AF102" s="47">
         <f>AF101/AF103</f>
         <v>0.93544387149811181</v>
       </c>
@@ -11356,10 +11347,10 @@
       <c r="X103" s="1">
         <v>7016000000</v>
       </c>
-      <c r="AE103" s="49" t="s">
+      <c r="AE103" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AF103" s="54">
+      <c r="AF103" s="51">
         <f>AF99+AF101</f>
         <v>218228700000</v>
       </c>
@@ -11437,10 +11428,10 @@
       <c r="X104" s="11">
         <v>7016000000</v>
       </c>
-      <c r="AE104" s="46" t="s">
+      <c r="AE104" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="AF104" s="46"/>
+      <c r="AF104" s="69"/>
     </row>
     <row r="105" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11557,12 +11548,12 @@
       <c r="AD105" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="AE105" s="55" t="s">
+      <c r="AE105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="AF105" s="56">
+      <c r="AF105" s="53">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.709744675633091E-2</v>
+        <v>8.7350742506079673E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11659,16 +11650,16 @@
         <v>0.194964982017793</v>
       </c>
       <c r="Y106" s="31">
-        <v>9702000000</v>
+        <v>10031000000</v>
       </c>
       <c r="Z106" s="31">
-        <v>11567000000</v>
+        <v>11582000000</v>
       </c>
       <c r="AA106" s="31">
-        <v>13658000000</v>
+        <v>12544000000</v>
       </c>
       <c r="AB106" s="31">
-        <v>16560000000</v>
+        <v>15280000000</v>
       </c>
       <c r="AC106" s="31">
         <v>15052000000</v>
@@ -11676,10 +11667,10 @@
       <c r="AD106" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="AE106" s="57" t="s">
+      <c r="AE106" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="AF106" s="58">
+      <c r="AF106" s="55">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>0.1162762753002176</v>
       </c>
@@ -11763,133 +11754,133 @@
       <c r="AB107" s="26"/>
       <c r="AC107" s="33">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>248453049294.28622</v>
+        <v>247443725285.15793</v>
       </c>
       <c r="AD107" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AE107" s="59" t="s">
+      <c r="AE107" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="AF107" s="60">
+      <c r="AF107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="Y108" s="33">
         <f t="shared" ref="Y108:AB108" si="53">Y107+Y106</f>
-        <v>9702000000</v>
+        <v>10031000000</v>
       </c>
       <c r="Z108" s="33">
         <f t="shared" si="53"/>
-        <v>11567000000</v>
+        <v>11582000000</v>
       </c>
       <c r="AA108" s="33">
         <f t="shared" si="53"/>
-        <v>13658000000</v>
+        <v>12544000000</v>
       </c>
       <c r="AB108" s="33">
         <f t="shared" si="53"/>
-        <v>16560000000</v>
+        <v>15280000000</v>
       </c>
       <c r="AC108" s="33">
         <f>AC107+AC106</f>
-        <v>263505049294.28622</v>
+        <v>262495725285.15793</v>
       </c>
       <c r="AD108" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AE108" s="61" t="s">
+      <c r="AE108" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="AF108" s="58">
+      <c r="AF108" s="55">
         <f>AF105</f>
-        <v>8.709744675633091E-2</v>
+        <v>8.7350742506079673E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="62" t="s">
+      <c r="Y109" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="Z109" s="62"/>
+      <c r="Z109" s="66"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="63" t="s">
+      <c r="Y110" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="Z110" s="53">
+      <c r="Z110" s="50">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>214759725385.13608</v>
+        <v>212401624146.48862</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="63" t="s">
+      <c r="Y111" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="Z111" s="53">
+      <c r="Z111" s="50">
         <f>W40</f>
         <v>10537000000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="63" t="s">
+      <c r="Y112" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="Z112" s="53">
+      <c r="Z112" s="50">
         <f>AF99</f>
         <v>14088000000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="63" t="s">
+      <c r="Y113" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="Z113" s="53">
+      <c r="Z113" s="50">
         <f>Z110+Z111-Z112</f>
-        <v>211208725385.13608</v>
+        <v>208850624146.48862</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="63" t="s">
+      <c r="Y114" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="Z114" s="63">
+      <c r="Z114" s="59">
         <f>X34*(1+(5*0.05))</f>
         <v>1246250000</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="64" t="s">
+      <c r="Y115" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="Z115" s="65">
+      <c r="Z115" s="61">
         <f>Z113/Z114</f>
-        <v>169.47540652769194</v>
+        <v>167.58324906438403</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="63" t="s">
+      <c r="Y116" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="Z116" s="66" cm="1">
+      <c r="Z116" s="62" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price")</f>
         <v>209.59</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="64" t="s">
+      <c r="Y117" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="Z117" s="67">
+      <c r="Z117" s="63">
         <f>Z115/Z116-1</f>
-        <v>-0.19139555070522474</v>
+        <v>-0.20042345023911434</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="64" t="s">
+      <c r="Y118" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="Z118" s="68" t="str">
+      <c r="Z118" s="64" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Salesforce.xlsx
+++ b/Technology/Software/Salesforce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF733F-D37D-6D41-9673-17AB780CDC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E59DE-69EE-FA49-863D-A006EB6B393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1375,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,7 +1687,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1725,6 +1728,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1744,7 +1749,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1757,6 +1762,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1884,11 +1891,11 @@
     <v>Powered by Refinitiv</v>
     <v>263.43</v>
     <v>126.34</v>
-    <v>1.2833000000000001</v>
-    <v>8.09</v>
-    <v>3.2115999999999999E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.2848999999999999</v>
+    <v>1.96</v>
+    <v>7.8759999999999993E-3</v>
+    <v>0.59</v>
+    <v>2.3519999999999999E-3</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on its platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. It sells to businesses worldwide, primarily on a subscription basis.</v>
     <v>79390</v>
@@ -1896,25 +1903,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>263.43</v>
+    <v>252.09</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041488923438</v>
+    <v>45269.041335983595</v>
     <v>0</v>
-    <v>249.7</v>
-    <v>252970270000</v>
+    <v>248</v>
+    <v>245292180000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>250</v>
-    <v>95.614800000000002</v>
-    <v>251.9</v>
-    <v>259.99</v>
-    <v>260</v>
-    <v>973000000</v>
+    <v>248.55</v>
+    <v>94.457099999999997</v>
+    <v>248.85</v>
+    <v>250.81</v>
+    <v>251.4</v>
+    <v>978000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>14538232</v>
-    <v>5226662</v>
+    <v>4605805</v>
+    <v>6222940</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2079,9 +2086,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14034,7 +14041,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14087,7 +14094,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>252970270000</v>
+        <v>245292180000</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>201</v>
@@ -14115,7 +14122,7 @@
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>269865464647.47726</v>
+        <v>268517244294.40851</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
@@ -14160,21 +14167,21 @@
       </c>
       <c r="G4" s="46">
         <f>A5*(1+(5*G3))</f>
-        <v>1083775933.916012</v>
+        <v>1089345183.3194859</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>226924633449.81329</v>
+        <v>225740146935.02249</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.2115999999999999E-2</v>
+        <v>7.8759999999999993E-3</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>213</v>
@@ -14191,7 +14198,7 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>973000000</v>
+        <v>978000000</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>215</v>
@@ -14219,14 +14226,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>226521633449.81329</v>
+        <v>225337146935.02249</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>259.99</v>
+        <v>250.81</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>220</v>
@@ -14246,7 +14253,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>7.2786727089627394</v>
+        <v>7.0577522658610272</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14274,14 +14281,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>9.108848606581689E-2</v>
+        <v>9.1420315190056445E-2</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>209.01149985063955</v>
+        <v>206.85559580698586</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>226</v>
@@ -14301,14 +14308,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>31.62128375</v>
+        <v>30.6615225</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>4.282321396897746E-2</v>
+        <v>4.4163658213645457E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>229</v>
@@ -14335,7 +14342,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-0.19607869590892135</v>
+        <v>-0.17524980739609319</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>232</v>
@@ -14662,7 +14669,7 @@
       </c>
       <c r="O14" s="86">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14709,7 +14716,7 @@
       </c>
       <c r="O15" s="93" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.2833000000000001</v>
+        <v>1.2848999999999999</v>
       </c>
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
@@ -14814,7 +14821,7 @@
       </c>
       <c r="O17" s="96">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.5697457000000014E-2</v>
+        <v>9.6190871000000011E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14896,23 +14903,23 @@
       </c>
       <c r="O20" s="102" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>252970270000</v>
+        <v>245292180000</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="str" cm="1">
+      <c r="A21" s="117" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="117" cm="1">
+      <c r="B21" s="117"/>
+      <c r="C21" s="118" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1999</v>
       </c>
-      <c r="D21" s="117"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="103"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
@@ -14926,7 +14933,7 @@
       </c>
       <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>265770270000</v>
+        <v>258092180000</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -14954,7 +14961,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>4.8161895610069554E-2</v>
+        <v>4.9594683573907589E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -14979,7 +14986,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.95183810438993044</v>
+        <v>0.95040531642609238</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15023,7 +15030,7 @@
       <c r="M25" s="77"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.108848606581689E-2</v>
+        <v>9.1420315190056445E-2</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="41"/>
